--- a/Code/Results/Cases/Case_1_52/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_52/res_line/pl_mw.xlsx
@@ -412,22 +412,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2737318918914582</v>
+        <v>0.2737318918913871</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.04637224898457504</v>
+        <v>0.04637224898457859</v>
       </c>
       <c r="E2">
-        <v>1.705934378044489</v>
+        <v>1.705934378044475</v>
       </c>
       <c r="F2">
-        <v>2.596391328662193</v>
+        <v>2.596391328662136</v>
       </c>
       <c r="G2">
-        <v>2.099307045731052</v>
+        <v>2.099307045731038</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -436,7 +436,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>12.01154779753293</v>
+        <v>12.01154779753287</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2385563060691709</v>
+        <v>0.2385563060690004</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.03243031015476561</v>
+        <v>0.03243031015477627</v>
       </c>
       <c r="E3">
         <v>1.423679926977442</v>
       </c>
       <c r="F3">
-        <v>2.125349381065476</v>
+        <v>2.125349381065462</v>
       </c>
       <c r="G3">
-        <v>1.708266235042998</v>
+        <v>1.708266235042984</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -474,7 +474,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.29692438260543</v>
+        <v>10.29692438260548</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2172648210737691</v>
+        <v>0.2172648210736696</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.02541260372463583</v>
+        <v>0.02541260372480281</v>
       </c>
       <c r="E4">
-        <v>1.261719143860418</v>
+        <v>1.261719143860404</v>
       </c>
       <c r="F4">
-        <v>1.863691565800451</v>
+        <v>1.86369156580048</v>
       </c>
       <c r="G4">
         <v>1.492404953739751</v>
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2086539148599371</v>
+        <v>0.2086539148599229</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.02286029852394122</v>
+        <v>0.02286029852383109</v>
       </c>
       <c r="E5">
-        <v>1.197936173363289</v>
+        <v>1.19793617336326</v>
       </c>
       <c r="F5">
-        <v>1.762634663647972</v>
+        <v>1.762634663647958</v>
       </c>
       <c r="G5">
-        <v>1.409334661872862</v>
+        <v>1.409334661872848</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -550,7 +550,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>8.864348312954291</v>
+        <v>8.864348312954235</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2072277348899689</v>
+        <v>0.2072277348900116</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02245306956530158</v>
+        <v>0.02245306956519144</v>
       </c>
       <c r="E6">
         <v>1.187463299013075</v>
       </c>
       <c r="F6">
-        <v>1.746156654766693</v>
+        <v>1.746156654766722</v>
       </c>
       <c r="G6">
         <v>1.395806533397035</v>
@@ -602,22 +602,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2171484399540304</v>
+        <v>0.217148439953931</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02537702974367306</v>
+        <v>0.02537702974327871</v>
       </c>
       <c r="E7">
         <v>1.260850693136135</v>
       </c>
       <c r="F7">
-        <v>1.862307695792722</v>
+        <v>1.862307695792708</v>
       </c>
       <c r="G7">
-        <v>1.491266207433398</v>
+        <v>1.491266207433384</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -626,7 +626,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>9.269304924752362</v>
+        <v>9.269304924752333</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -640,22 +640,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2615322086926426</v>
+        <v>0.2615322086923015</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.04118953509032153</v>
+        <v>0.04118953509030376</v>
       </c>
       <c r="E8">
-        <v>1.605820501316103</v>
+        <v>1.605820501316089</v>
       </c>
       <c r="F8">
         <v>2.427327363011841</v>
       </c>
       <c r="G8">
-        <v>1.958626070480975</v>
+        <v>1.95862607048096</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>11.41278736700275</v>
+        <v>11.41278736700261</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3516485070940831</v>
+        <v>0.3516485070940405</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.08964949907758069</v>
+        <v>0.08964949907758779</v>
       </c>
       <c r="E9">
         <v>2.413794976363818</v>
       </c>
       <c r="F9">
-        <v>3.840047803129778</v>
+        <v>3.84004780312975</v>
       </c>
       <c r="G9">
-        <v>3.143494422132036</v>
+        <v>3.143494422131994</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -702,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>15.96804129116083</v>
+        <v>15.96804129116077</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -716,22 +716,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4209677158367242</v>
+        <v>0.4209677158366958</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1479383652255279</v>
+        <v>0.1479383652256132</v>
       </c>
       <c r="E10">
-        <v>3.18494330131476</v>
+        <v>3.184943301314775</v>
       </c>
       <c r="F10">
         <v>5.256408258298222</v>
       </c>
       <c r="G10">
-        <v>4.348468449474865</v>
+        <v>4.348468449474879</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>19.76424288932429</v>
+        <v>19.76424288932418</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -754,22 +754,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4536340305061941</v>
+        <v>0.4536340305060378</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1851105091720342</v>
+        <v>0.1851105091722687</v>
       </c>
       <c r="E11">
         <v>3.62182238570125</v>
       </c>
       <c r="F11">
-        <v>6.071154224340091</v>
+        <v>6.071154224340006</v>
       </c>
       <c r="G11">
-        <v>5.047781017745265</v>
+        <v>5.047781017745237</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -778,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>21.69217644313289</v>
+        <v>21.69217644313278</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -792,22 +792,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4662350857410757</v>
+        <v>0.4662350857406352</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.2017650886814053</v>
+        <v>0.2017650886814195</v>
       </c>
       <c r="E12">
         <v>3.80854924894868</v>
       </c>
       <c r="F12">
-        <v>6.41983518023531</v>
+        <v>6.419835180235282</v>
       </c>
       <c r="G12">
-        <v>5.348294478001677</v>
+        <v>5.348294478001662</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -816,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>22.46889762045879</v>
+        <v>22.46889762045873</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -830,22 +830,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4635093108683606</v>
+        <v>0.4635093108688295</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1980358366318313</v>
+        <v>0.1980358366319166</v>
       </c>
       <c r="E13">
-        <v>3.767146916306771</v>
+        <v>3.767146916306828</v>
       </c>
       <c r="F13">
-        <v>6.342546310232819</v>
+        <v>6.342546310232933</v>
       </c>
       <c r="G13">
-        <v>5.28162089523974</v>
+        <v>5.281620895239868</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -854,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>22.29908610814903</v>
+        <v>22.29908610814908</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4546655309048901</v>
+        <v>0.4546655309050465</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1864195266098747</v>
+        <v>0.1864195266099244</v>
       </c>
       <c r="E14">
-        <v>3.636675651145254</v>
+        <v>3.636675651145282</v>
       </c>
       <c r="F14">
         <v>6.098895631860927</v>
       </c>
       <c r="G14">
-        <v>5.071663852124217</v>
+        <v>5.071663852124232</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -892,7 +892,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>21.75498619399463</v>
+        <v>21.75498619399502</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.449281370611132</v>
+        <v>0.4492813706112173</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.179686909805838</v>
+        <v>0.1796869098056106</v>
       </c>
       <c r="E15">
-        <v>3.559936445163459</v>
+        <v>3.55993644516353</v>
       </c>
       <c r="F15">
-        <v>5.955575336205953</v>
+        <v>5.955575336206124</v>
       </c>
       <c r="G15">
-        <v>4.948327761709407</v>
+        <v>4.948327761709535</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>21.42856152613683</v>
+        <v>21.42856152613712</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4188605739870184</v>
+        <v>0.4188605739872315</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1457944900478836</v>
+        <v>0.1457944900478978</v>
       </c>
       <c r="E16">
         <v>3.158723288151592</v>
@@ -959,7 +959,7 @@
         <v>5.207663426703135</v>
       </c>
       <c r="G16">
-        <v>4.306763553133706</v>
+        <v>4.306763553133734</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>19.64351922246709</v>
+        <v>19.64351922246715</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -982,22 +982,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.400525213283629</v>
+        <v>0.4005252132833164</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1282472634398673</v>
+        <v>0.1282472634397465</v>
       </c>
       <c r="E17">
-        <v>2.938963499678863</v>
+        <v>2.938963499678877</v>
       </c>
       <c r="F17">
-        <v>4.800315027203681</v>
+        <v>4.800315027203709</v>
       </c>
       <c r="G17">
-        <v>3.95886884427243</v>
+        <v>3.958868844272445</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1020,22 +1020,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3900803355905254</v>
+        <v>0.3900803355907954</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1190695775604453</v>
+        <v>0.1190695775605803</v>
       </c>
       <c r="E18">
-        <v>2.819913038021113</v>
+        <v>2.819913038021156</v>
       </c>
       <c r="F18">
-        <v>4.58075224423078</v>
+        <v>4.580752244230723</v>
       </c>
       <c r="G18">
-        <v>3.771828470841143</v>
+        <v>3.771828470841172</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>18.03132660215277</v>
+        <v>18.03132660215294</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1058,22 +1058,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3865597837149721</v>
+        <v>0.3865597837153558</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1160992985063842</v>
+        <v>0.1160992985063558</v>
       </c>
       <c r="E19">
-        <v>2.780699627832419</v>
+        <v>2.780699627832433</v>
       </c>
       <c r="F19">
-        <v>4.50863732976029</v>
+        <v>4.508637329760376</v>
       </c>
       <c r="G19">
-        <v>3.710470943833656</v>
+        <v>3.710470943833712</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1082,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>17.83839935395343</v>
+        <v>17.83839935395332</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.402466210939707</v>
+        <v>0.4024662109397781</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1300154216964486</v>
+        <v>0.1300154216964629</v>
       </c>
       <c r="E20">
-        <v>2.961554182806822</v>
+        <v>2.961554182806836</v>
       </c>
       <c r="F20">
-        <v>4.842076002619592</v>
+        <v>4.842076002619564</v>
       </c>
       <c r="G20">
-        <v>3.994482510151158</v>
+        <v>3.994482510151144</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>18.71717989431897</v>
+        <v>18.71717989431909</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1134,22 +1134,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4572561058638343</v>
+        <v>0.4572561058644169</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1897483333761372</v>
+        <v>0.1897483333763361</v>
       </c>
       <c r="E21">
-        <v>3.674306041172485</v>
+        <v>3.674306041172542</v>
       </c>
       <c r="F21">
-        <v>6.169177067723865</v>
+        <v>6.169177067723894</v>
       </c>
       <c r="G21">
-        <v>5.132190310911454</v>
+        <v>5.132190310911511</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1158,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>21.91331746069301</v>
+        <v>21.91331746069289</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1172,22 +1172,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4944921988160331</v>
+        <v>0.4944921988161752</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.2453196234741313</v>
+        <v>0.2453196234740531</v>
       </c>
       <c r="E22">
-        <v>4.277525864270686</v>
+        <v>4.2775258642707</v>
       </c>
       <c r="F22">
-        <v>7.292397894918622</v>
+        <v>7.292397894918537</v>
       </c>
       <c r="G22">
-        <v>6.103369583775446</v>
+        <v>6.10336958377539</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>24.29812369277943</v>
+        <v>24.29812369277926</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1210,22 +1210,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4744488315554065</v>
+        <v>0.4744488315557192</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.213461628807643</v>
+        <v>0.2134616288075151</v>
       </c>
       <c r="E23">
-        <v>3.937003719649553</v>
+        <v>3.937003719649567</v>
       </c>
       <c r="F23">
         <v>6.65945899772322</v>
       </c>
       <c r="G23">
-        <v>5.55522618804946</v>
+        <v>5.555226188049446</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1234,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>22.98708729428614</v>
+        <v>22.98708729428603</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1248,22 +1248,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.4015883900919732</v>
+        <v>0.4015883900917174</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1292132643269284</v>
+        <v>0.1292132643268076</v>
       </c>
       <c r="E24">
-        <v>2.951318749798872</v>
+        <v>2.951318749798901</v>
       </c>
       <c r="F24">
-        <v>4.823151254318162</v>
+        <v>4.823151254318219</v>
       </c>
       <c r="G24">
-        <v>3.978342022760614</v>
+        <v>3.978342022760657</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1286,22 +1286,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.326834601731548</v>
+        <v>0.3268346017320738</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.07375845043948459</v>
+        <v>0.07375845043938867</v>
       </c>
       <c r="E25">
-        <v>2.173834724768142</v>
+        <v>2.173834724768128</v>
       </c>
       <c r="F25">
-        <v>3.41036419825241</v>
+        <v>3.410364198252438</v>
       </c>
       <c r="G25">
-        <v>2.781050689584305</v>
+        <v>2.781050689584319</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1310,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>14.67955055052727</v>
+        <v>14.67955055052732</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_52/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_52/res_line/pl_mw.xlsx
@@ -412,22 +412,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2737318918913871</v>
+        <v>0.2737318918914582</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.04637224898457859</v>
+        <v>0.04637224898457504</v>
       </c>
       <c r="E2">
-        <v>1.705934378044475</v>
+        <v>1.705934378044489</v>
       </c>
       <c r="F2">
-        <v>2.596391328662136</v>
+        <v>2.596391328662193</v>
       </c>
       <c r="G2">
-        <v>2.099307045731038</v>
+        <v>2.099307045731052</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -436,7 +436,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>12.01154779753287</v>
+        <v>12.01154779753293</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2385563060690004</v>
+        <v>0.2385563060691709</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.03243031015477627</v>
+        <v>0.03243031015476561</v>
       </c>
       <c r="E3">
         <v>1.423679926977442</v>
       </c>
       <c r="F3">
-        <v>2.125349381065462</v>
+        <v>2.125349381065476</v>
       </c>
       <c r="G3">
-        <v>1.708266235042984</v>
+        <v>1.708266235042998</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -474,7 +474,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.29692438260548</v>
+        <v>10.29692438260543</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2172648210736696</v>
+        <v>0.2172648210737691</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.02541260372480281</v>
+        <v>0.02541260372463583</v>
       </c>
       <c r="E4">
-        <v>1.261719143860404</v>
+        <v>1.261719143860418</v>
       </c>
       <c r="F4">
-        <v>1.86369156580048</v>
+        <v>1.863691565800451</v>
       </c>
       <c r="G4">
         <v>1.492404953739751</v>
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2086539148599229</v>
+        <v>0.2086539148599371</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.02286029852383109</v>
+        <v>0.02286029852394122</v>
       </c>
       <c r="E5">
-        <v>1.19793617336326</v>
+        <v>1.197936173363289</v>
       </c>
       <c r="F5">
-        <v>1.762634663647958</v>
+        <v>1.762634663647972</v>
       </c>
       <c r="G5">
-        <v>1.409334661872848</v>
+        <v>1.409334661872862</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -550,7 +550,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>8.864348312954235</v>
+        <v>8.864348312954291</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2072277348900116</v>
+        <v>0.2072277348899689</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02245306956519144</v>
+        <v>0.02245306956530158</v>
       </c>
       <c r="E6">
         <v>1.187463299013075</v>
       </c>
       <c r="F6">
-        <v>1.746156654766722</v>
+        <v>1.746156654766693</v>
       </c>
       <c r="G6">
         <v>1.395806533397035</v>
@@ -602,22 +602,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.217148439953931</v>
+        <v>0.2171484399540304</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02537702974327871</v>
+        <v>0.02537702974367306</v>
       </c>
       <c r="E7">
         <v>1.260850693136135</v>
       </c>
       <c r="F7">
-        <v>1.862307695792708</v>
+        <v>1.862307695792722</v>
       </c>
       <c r="G7">
-        <v>1.491266207433384</v>
+        <v>1.491266207433398</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -626,7 +626,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>9.269304924752333</v>
+        <v>9.269304924752362</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -640,22 +640,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2615322086923015</v>
+        <v>0.2615322086926426</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.04118953509030376</v>
+        <v>0.04118953509032153</v>
       </c>
       <c r="E8">
-        <v>1.605820501316089</v>
+        <v>1.605820501316103</v>
       </c>
       <c r="F8">
         <v>2.427327363011841</v>
       </c>
       <c r="G8">
-        <v>1.95862607048096</v>
+        <v>1.958626070480975</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>11.41278736700261</v>
+        <v>11.41278736700275</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3516485070940405</v>
+        <v>0.3516485070940831</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.08964949907758779</v>
+        <v>0.08964949907758069</v>
       </c>
       <c r="E9">
         <v>2.413794976363818</v>
       </c>
       <c r="F9">
-        <v>3.84004780312975</v>
+        <v>3.840047803129778</v>
       </c>
       <c r="G9">
-        <v>3.143494422131994</v>
+        <v>3.143494422132036</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -702,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>15.96804129116077</v>
+        <v>15.96804129116083</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -716,22 +716,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4209677158366958</v>
+        <v>0.4209677158367242</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1479383652256132</v>
+        <v>0.1479383652255279</v>
       </c>
       <c r="E10">
-        <v>3.184943301314775</v>
+        <v>3.18494330131476</v>
       </c>
       <c r="F10">
         <v>5.256408258298222</v>
       </c>
       <c r="G10">
-        <v>4.348468449474879</v>
+        <v>4.348468449474865</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>19.76424288932418</v>
+        <v>19.76424288932429</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -754,22 +754,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4536340305060378</v>
+        <v>0.4536340305061941</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1851105091722687</v>
+        <v>0.1851105091720342</v>
       </c>
       <c r="E11">
         <v>3.62182238570125</v>
       </c>
       <c r="F11">
-        <v>6.071154224340006</v>
+        <v>6.071154224340091</v>
       </c>
       <c r="G11">
-        <v>5.047781017745237</v>
+        <v>5.047781017745265</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -778,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>21.69217644313278</v>
+        <v>21.69217644313289</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -792,22 +792,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4662350857406352</v>
+        <v>0.4662350857410757</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.2017650886814195</v>
+        <v>0.2017650886814053</v>
       </c>
       <c r="E12">
         <v>3.80854924894868</v>
       </c>
       <c r="F12">
-        <v>6.419835180235282</v>
+        <v>6.41983518023531</v>
       </c>
       <c r="G12">
-        <v>5.348294478001662</v>
+        <v>5.348294478001677</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -816,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>22.46889762045873</v>
+        <v>22.46889762045879</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -830,22 +830,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4635093108688295</v>
+        <v>0.4635093108683606</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1980358366319166</v>
+        <v>0.1980358366318313</v>
       </c>
       <c r="E13">
-        <v>3.767146916306828</v>
+        <v>3.767146916306771</v>
       </c>
       <c r="F13">
-        <v>6.342546310232933</v>
+        <v>6.342546310232819</v>
       </c>
       <c r="G13">
-        <v>5.281620895239868</v>
+        <v>5.28162089523974</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -854,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>22.29908610814908</v>
+        <v>22.29908610814903</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4546655309050465</v>
+        <v>0.4546655309048901</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1864195266099244</v>
+        <v>0.1864195266098747</v>
       </c>
       <c r="E14">
-        <v>3.636675651145282</v>
+        <v>3.636675651145254</v>
       </c>
       <c r="F14">
         <v>6.098895631860927</v>
       </c>
       <c r="G14">
-        <v>5.071663852124232</v>
+        <v>5.071663852124217</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -892,7 +892,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>21.75498619399502</v>
+        <v>21.75498619399463</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4492813706112173</v>
+        <v>0.449281370611132</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1796869098056106</v>
+        <v>0.179686909805838</v>
       </c>
       <c r="E15">
-        <v>3.55993644516353</v>
+        <v>3.559936445163459</v>
       </c>
       <c r="F15">
-        <v>5.955575336206124</v>
+        <v>5.955575336205953</v>
       </c>
       <c r="G15">
-        <v>4.948327761709535</v>
+        <v>4.948327761709407</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>21.42856152613712</v>
+        <v>21.42856152613683</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4188605739872315</v>
+        <v>0.4188605739870184</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1457944900478978</v>
+        <v>0.1457944900478836</v>
       </c>
       <c r="E16">
         <v>3.158723288151592</v>
@@ -959,7 +959,7 @@
         <v>5.207663426703135</v>
       </c>
       <c r="G16">
-        <v>4.306763553133734</v>
+        <v>4.306763553133706</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>19.64351922246715</v>
+        <v>19.64351922246709</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -982,22 +982,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.4005252132833164</v>
+        <v>0.400525213283629</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1282472634397465</v>
+        <v>0.1282472634398673</v>
       </c>
       <c r="E17">
-        <v>2.938963499678877</v>
+        <v>2.938963499678863</v>
       </c>
       <c r="F17">
-        <v>4.800315027203709</v>
+        <v>4.800315027203681</v>
       </c>
       <c r="G17">
-        <v>3.958868844272445</v>
+        <v>3.95886884427243</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1020,22 +1020,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3900803355907954</v>
+        <v>0.3900803355905254</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1190695775605803</v>
+        <v>0.1190695775604453</v>
       </c>
       <c r="E18">
-        <v>2.819913038021156</v>
+        <v>2.819913038021113</v>
       </c>
       <c r="F18">
-        <v>4.580752244230723</v>
+        <v>4.58075224423078</v>
       </c>
       <c r="G18">
-        <v>3.771828470841172</v>
+        <v>3.771828470841143</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>18.03132660215294</v>
+        <v>18.03132660215277</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1058,22 +1058,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3865597837153558</v>
+        <v>0.3865597837149721</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1160992985063558</v>
+        <v>0.1160992985063842</v>
       </c>
       <c r="E19">
-        <v>2.780699627832433</v>
+        <v>2.780699627832419</v>
       </c>
       <c r="F19">
-        <v>4.508637329760376</v>
+        <v>4.50863732976029</v>
       </c>
       <c r="G19">
-        <v>3.710470943833712</v>
+        <v>3.710470943833656</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1082,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>17.83839935395332</v>
+        <v>17.83839935395343</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.4024662109397781</v>
+        <v>0.402466210939707</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1300154216964629</v>
+        <v>0.1300154216964486</v>
       </c>
       <c r="E20">
-        <v>2.961554182806836</v>
+        <v>2.961554182806822</v>
       </c>
       <c r="F20">
-        <v>4.842076002619564</v>
+        <v>4.842076002619592</v>
       </c>
       <c r="G20">
-        <v>3.994482510151144</v>
+        <v>3.994482510151158</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>18.71717989431909</v>
+        <v>18.71717989431897</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1134,22 +1134,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4572561058644169</v>
+        <v>0.4572561058638343</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1897483333763361</v>
+        <v>0.1897483333761372</v>
       </c>
       <c r="E21">
-        <v>3.674306041172542</v>
+        <v>3.674306041172485</v>
       </c>
       <c r="F21">
-        <v>6.169177067723894</v>
+        <v>6.169177067723865</v>
       </c>
       <c r="G21">
-        <v>5.132190310911511</v>
+        <v>5.132190310911454</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1158,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>21.91331746069289</v>
+        <v>21.91331746069301</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1172,22 +1172,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4944921988161752</v>
+        <v>0.4944921988160331</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.2453196234740531</v>
+        <v>0.2453196234741313</v>
       </c>
       <c r="E22">
-        <v>4.2775258642707</v>
+        <v>4.277525864270686</v>
       </c>
       <c r="F22">
-        <v>7.292397894918537</v>
+        <v>7.292397894918622</v>
       </c>
       <c r="G22">
-        <v>6.10336958377539</v>
+        <v>6.103369583775446</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>24.29812369277926</v>
+        <v>24.29812369277943</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1210,22 +1210,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4744488315557192</v>
+        <v>0.4744488315554065</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.2134616288075151</v>
+        <v>0.213461628807643</v>
       </c>
       <c r="E23">
-        <v>3.937003719649567</v>
+        <v>3.937003719649553</v>
       </c>
       <c r="F23">
         <v>6.65945899772322</v>
       </c>
       <c r="G23">
-        <v>5.555226188049446</v>
+        <v>5.55522618804946</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1234,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>22.98708729428603</v>
+        <v>22.98708729428614</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1248,22 +1248,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.4015883900917174</v>
+        <v>0.4015883900919732</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1292132643268076</v>
+        <v>0.1292132643269284</v>
       </c>
       <c r="E24">
-        <v>2.951318749798901</v>
+        <v>2.951318749798872</v>
       </c>
       <c r="F24">
-        <v>4.823151254318219</v>
+        <v>4.823151254318162</v>
       </c>
       <c r="G24">
-        <v>3.978342022760657</v>
+        <v>3.978342022760614</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1286,22 +1286,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3268346017320738</v>
+        <v>0.326834601731548</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.07375845043938867</v>
+        <v>0.07375845043948459</v>
       </c>
       <c r="E25">
-        <v>2.173834724768128</v>
+        <v>2.173834724768142</v>
       </c>
       <c r="F25">
-        <v>3.410364198252438</v>
+        <v>3.41036419825241</v>
       </c>
       <c r="G25">
-        <v>2.781050689584319</v>
+        <v>2.781050689584305</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1310,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>14.67955055052732</v>
+        <v>14.67955055052727</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_52/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_52/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2737318918914582</v>
+        <v>0.2737242504214947</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.04637224898457504</v>
+        <v>0.04612340731568665</v>
       </c>
       <c r="E2">
-        <v>1.705934378044489</v>
+        <v>1.705495817077576</v>
       </c>
       <c r="F2">
-        <v>2.596391328662193</v>
+        <v>2.590723258806463</v>
       </c>
       <c r="G2">
-        <v>2.099307045731052</v>
+        <v>0.7294451519286298</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1.367297273313568</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>12.01154779753293</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>12.00905752148537</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2385563060691709</v>
+        <v>0.2385510790187624</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.03243031015476561</v>
+        <v>0.03224308326380765</v>
       </c>
       <c r="E3">
-        <v>1.423679926977442</v>
+        <v>1.423392013519077</v>
       </c>
       <c r="F3">
-        <v>2.125349381065476</v>
+        <v>2.12080230302908</v>
       </c>
       <c r="G3">
-        <v>1.708266235042998</v>
+        <v>0.5921783957945479</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1.114923730049412</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.29692438260543</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>10.29516299453073</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2172648210737691</v>
+        <v>0.2172607878371906</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.02541260372463583</v>
+        <v>0.02525699593880404</v>
       </c>
       <c r="E4">
-        <v>1.261719143860418</v>
+        <v>1.261501439877264</v>
       </c>
       <c r="F4">
-        <v>1.863691565800451</v>
+        <v>1.859746651787248</v>
       </c>
       <c r="G4">
-        <v>1.492404953739751</v>
+        <v>0.5159978361362647</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.9760053604352237</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>9.274863468908535</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>9.27346656179148</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2086539148599371</v>
+        <v>0.2086503131145889</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.02286029852394122</v>
+        <v>0.02271639221758903</v>
       </c>
       <c r="E5">
-        <v>1.197936173363289</v>
+        <v>1.197743120418579</v>
       </c>
       <c r="F5">
-        <v>1.762634663647972</v>
+        <v>1.758918821313898</v>
       </c>
       <c r="G5">
-        <v>1.409334661872862</v>
+        <v>0.4865846807916228</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.9226402144443568</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>8.864348312954291</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>8.863084396863968</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2072277348899689</v>
+        <v>0.2072242018916057</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02245306956530158</v>
+        <v>0.02231104374382653</v>
       </c>
       <c r="E6">
-        <v>1.187463299013075</v>
+        <v>1.187274137317786</v>
       </c>
       <c r="F6">
-        <v>1.746156654766693</v>
+        <v>1.742477990547101</v>
       </c>
       <c r="G6">
-        <v>1.395806533397035</v>
+        <v>0.4817889996135278</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.9139552640939712</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>8.796499966129971</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>8.795257320556544</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2171484399540304</v>
+        <v>0.2171444127400406</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02537702974367306</v>
+        <v>0.02522158414285514</v>
       </c>
       <c r="E7">
-        <v>1.260850693136135</v>
+        <v>1.260633335896898</v>
       </c>
       <c r="F7">
-        <v>1.862307695792722</v>
+        <v>1.858365931290919</v>
       </c>
       <c r="G7">
-        <v>1.491266207433398</v>
+        <v>0.5155950259168947</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.9752734313287164</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>9.269304924752362</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>9.26790986823849</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2615322086926426</v>
+        <v>0.2615254720659266</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.04118953509032153</v>
+        <v>0.04096349759854689</v>
       </c>
       <c r="E8">
-        <v>1.605820501316103</v>
+        <v>1.605439721694182</v>
       </c>
       <c r="F8">
-        <v>2.427327363011841</v>
+        <v>2.422067494709282</v>
       </c>
       <c r="G8">
-        <v>1.958626070480975</v>
+        <v>0.6801568457169509</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1.276411894446056</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>11.41278736700275</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>11.41056947282871</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3516485070940831</v>
+        <v>0.351632921150383</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.08964949907758069</v>
+        <v>0.08920825985413927</v>
       </c>
       <c r="E9">
-        <v>2.413794976363818</v>
+        <v>2.412785028297023</v>
       </c>
       <c r="F9">
-        <v>3.840047803129778</v>
+        <v>3.831132862129436</v>
       </c>
       <c r="G9">
-        <v>3.143494422132036</v>
+        <v>1.092867266335233</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2.044126573727425</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>15.96804129116083</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>15.96316038020512</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4209677158367242</v>
+        <v>0.420940133556428</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1479383652255279</v>
+        <v>0.1472160333295989</v>
       </c>
       <c r="E10">
-        <v>3.18494330131476</v>
+        <v>3.182866267304689</v>
       </c>
       <c r="F10">
-        <v>5.256408258298222</v>
+        <v>5.243087692663096</v>
       </c>
       <c r="G10">
-        <v>4.348468449474865</v>
+        <v>1.508670626923902</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2.828198060426004</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>19.76424288932429</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>19.75567888350474</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4536340305061941</v>
+        <v>0.4535978231791518</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1851105091720342</v>
+        <v>0.1841867859635187</v>
       </c>
       <c r="E11">
-        <v>3.62182238570125</v>
+        <v>3.618833864182264</v>
       </c>
       <c r="F11">
-        <v>6.071154224340091</v>
+        <v>6.054804157399843</v>
       </c>
       <c r="G11">
-        <v>5.047781017745265</v>
+        <v>1.748750852565635</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>3.284057356001497</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>21.69217644313289</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>21.68089385798311</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4662350857410757</v>
+        <v>0.4661947103555519</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.2017650886814053</v>
+        <v>0.2007436573902908</v>
       </c>
       <c r="E12">
-        <v>3.80854924894868</v>
+        <v>3.805078545944852</v>
       </c>
       <c r="F12">
-        <v>6.41983518023531</v>
+        <v>6.402039971831897</v>
       </c>
       <c r="G12">
-        <v>5.348294478001677</v>
+        <v>1.851684578227037</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>3.480060720467733</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>22.46889762045879</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>22.45628074168042</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4635093108683606</v>
+        <v>0.463469886881299</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1980358366318313</v>
+        <v>0.1970367385025256</v>
       </c>
       <c r="E13">
-        <v>3.767146916306771</v>
+        <v>3.763788624723531</v>
       </c>
       <c r="F13">
-        <v>6.342546310232819</v>
+        <v>6.325080226089597</v>
       </c>
       <c r="G13">
-        <v>5.28162089523974</v>
+        <v>1.828858789596438</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>3.43657021776238</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>22.29908610814903</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>22.28677492699842</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4546655309048901</v>
+        <v>0.4546290033308367</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1864195266098747</v>
+        <v>0.1854883077539426</v>
       </c>
       <c r="E14">
-        <v>3.636675651145254</v>
+        <v>3.633651032354393</v>
       </c>
       <c r="F14">
-        <v>6.098895631860927</v>
+        <v>6.082434203158698</v>
       </c>
       <c r="G14">
-        <v>5.071663852124217</v>
+        <v>1.756936330237266</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>3.299632530438615</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>21.75498619399463</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>21.74360155160025</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.449281370611132</v>
+        <v>0.4492464773950502</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.179686909805838</v>
+        <v>0.1787939266468186</v>
       </c>
       <c r="E15">
-        <v>3.559936445163459</v>
+        <v>3.557094375376991</v>
       </c>
       <c r="F15">
-        <v>5.955575336205953</v>
+        <v>5.939682903854077</v>
       </c>
       <c r="G15">
-        <v>4.948327761709407</v>
+        <v>1.714655351277742</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>3.219202986591753</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>21.42856152613683</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>21.41769690687067</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4188605739870184</v>
+        <v>0.4188334636434092</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1457944900478836</v>
+        <v>0.1450831644317176</v>
       </c>
       <c r="E16">
-        <v>3.158723288151592</v>
+        <v>3.156692703462511</v>
       </c>
       <c r="F16">
-        <v>5.207663426703135</v>
+        <v>5.194510841063732</v>
       </c>
       <c r="G16">
-        <v>4.306763553133706</v>
+        <v>1.494327209034154</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2.801026555445475</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>19.64351922246709</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>19.63510225859534</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.400525213283629</v>
+        <v>0.4005018717386548</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1282472634398673</v>
+        <v>0.1276238806185219</v>
       </c>
       <c r="E17">
-        <v>2.938963499678863</v>
+        <v>2.937290868512065</v>
       </c>
       <c r="F17">
-        <v>4.800315027203681</v>
+        <v>4.788515802866158</v>
       </c>
       <c r="G17">
-        <v>3.95886884427243</v>
+        <v>1.374554296999648</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2.574447537846211</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>18.60894196001294</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>18.6016927940197</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3900803355905254</v>
+        <v>0.3900589018343368</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1190695775604453</v>
+        <v>0.1184907909805304</v>
       </c>
       <c r="E18">
-        <v>2.819913038021113</v>
+        <v>2.818412730379478</v>
       </c>
       <c r="F18">
-        <v>4.58075224423078</v>
+        <v>4.569647848897375</v>
       </c>
       <c r="G18">
-        <v>3.771828470841143</v>
+        <v>1.310064681266823</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2.452697642306461</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>18.03132660215277</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>18.0246642411015</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3865597837149721</v>
+        <v>0.3865389585296555</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1160992985063842</v>
+        <v>0.1155347570301402</v>
       </c>
       <c r="E19">
-        <v>2.780699627832419</v>
+        <v>2.779253023459432</v>
       </c>
       <c r="F19">
-        <v>4.50863732976029</v>
+        <v>4.49775625038572</v>
       </c>
       <c r="G19">
-        <v>3.710470943833656</v>
+        <v>1.288893802912895</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2.412769704934675</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>17.83839935395343</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>17.83192357604588</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.402466210939707</v>
+        <v>0.4024424969769456</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1300154216964486</v>
+        <v>0.1293833416647914</v>
       </c>
       <c r="E20">
-        <v>2.961554182806822</v>
+        <v>2.959847213054132</v>
       </c>
       <c r="F20">
-        <v>4.842076002619592</v>
+        <v>4.830141985859598</v>
       </c>
       <c r="G20">
-        <v>3.994482510151158</v>
+        <v>1.386825730925253</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2.597635112579468</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>18.71717989431897</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>18.70981584007711</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4572561058638343</v>
+        <v>0.457218758403215</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1897483333761372</v>
+        <v>0.1887979160566928</v>
       </c>
       <c r="E21">
-        <v>3.674306041172485</v>
+        <v>3.671188282391498</v>
       </c>
       <c r="F21">
-        <v>6.169177067723865</v>
+        <v>6.152430803523913</v>
       </c>
       <c r="G21">
-        <v>5.132190310911454</v>
+        <v>1.777676964862707</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>3.339106391153607</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>21.91331746069301</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>21.90167117982628</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4944921988160331</v>
+        <v>0.4944398232233311</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.2453196234741313</v>
+        <v>0.2440146605180686</v>
       </c>
       <c r="E22">
-        <v>4.277525864270686</v>
+        <v>4.272521478787837</v>
       </c>
       <c r="F22">
-        <v>7.292397894918622</v>
+        <v>7.27047455821571</v>
       </c>
       <c r="G22">
-        <v>6.103369583775446</v>
+        <v>2.109734246926223</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>3.972682665844701</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>24.29812369277943</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>24.28159735686285</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4744488315554065</v>
+        <v>0.4744054000580462</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.213461628807643</v>
+        <v>0.212368323569585</v>
       </c>
       <c r="E23">
-        <v>3.937003719649553</v>
+        <v>3.933162641448973</v>
       </c>
       <c r="F23">
-        <v>6.65945899772322</v>
+        <v>6.640608941309353</v>
       </c>
       <c r="G23">
-        <v>5.55522618804946</v>
+        <v>1.922486300546836</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>3.615052115329306</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>22.98708729428614</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>22.97348404255933</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.4015883900919732</v>
+        <v>0.4015648452809728</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1292132643269284</v>
+        <v>0.1285851342941058</v>
       </c>
       <c r="E24">
-        <v>2.951318749798872</v>
+        <v>2.949627404878242</v>
       </c>
       <c r="F24">
-        <v>4.823151254318162</v>
+        <v>4.811278428363352</v>
       </c>
       <c r="G24">
-        <v>3.978342022760614</v>
+        <v>1.381264490862549</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2.587126045932834</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>18.66819311009255</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>18.6608812519317</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.326834601731548</v>
+        <v>0.3268220180354007</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.07375845043948459</v>
+        <v>0.07338877809322497</v>
       </c>
       <c r="E25">
-        <v>2.173834724768142</v>
+        <v>2.173053873667811</v>
       </c>
       <c r="F25">
-        <v>3.41036419825241</v>
+        <v>3.402624765400304</v>
       </c>
       <c r="G25">
-        <v>2.781050689584305</v>
+        <v>0.9671285773067098</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1.808827243120575</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>14.67955055052727</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>14.67557546016323</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_52/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_52/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2737242504214947</v>
+        <v>0.2739087112820897</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.04612340731568665</v>
+        <v>1.232445061531166</v>
       </c>
       <c r="E2">
-        <v>1.705495817077576</v>
+        <v>0.5447276146580293</v>
       </c>
       <c r="F2">
-        <v>2.590723258806463</v>
+        <v>8.83356135912868</v>
       </c>
       <c r="G2">
-        <v>0.7294451519286298</v>
+        <v>0.0006055809208261787</v>
       </c>
       <c r="H2">
-        <v>1.367297273313568</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.3437529027074788</v>
       </c>
       <c r="K2">
-        <v>12.00905752148537</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>18.25068569486999</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2385510790187624</v>
+        <v>0.2375594666869318</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.03224308326380765</v>
+        <v>0.963631102511016</v>
       </c>
       <c r="E3">
-        <v>1.423392013519077</v>
+        <v>0.447035324488148</v>
       </c>
       <c r="F3">
-        <v>2.12080230302908</v>
+        <v>6.838979126064913</v>
       </c>
       <c r="G3">
-        <v>0.5921783957945479</v>
+        <v>0.0006586985013719868</v>
       </c>
       <c r="H3">
-        <v>1.114923730049412</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.2877590069831513</v>
       </c>
       <c r="K3">
-        <v>10.29516299453073</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>15.07121808381325</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2172607878371906</v>
+        <v>0.2158888451091627</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.02525699593880404</v>
+        <v>0.8284659388354214</v>
       </c>
       <c r="E4">
-        <v>1.261501439877264</v>
+        <v>0.3944255691811875</v>
       </c>
       <c r="F4">
-        <v>1.859746651787248</v>
+        <v>5.912314674590732</v>
       </c>
       <c r="G4">
-        <v>0.5159978361362647</v>
+        <v>0.0006880219510150957</v>
       </c>
       <c r="H4">
-        <v>0.9760053604352237</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.2574664489063139</v>
       </c>
       <c r="K4">
-        <v>9.27346656179148</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>13.34722393540221</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2086503131145889</v>
+        <v>0.2071770232389269</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.02271639221758903</v>
+        <v>0.7780527651329976</v>
       </c>
       <c r="E5">
-        <v>1.197743120418579</v>
+        <v>0.3741467683914195</v>
       </c>
       <c r="F5">
-        <v>1.758918821313898</v>
+        <v>5.582090004444467</v>
       </c>
       <c r="G5">
-        <v>0.4865846807916228</v>
+        <v>0.000699504434329006</v>
       </c>
       <c r="H5">
-        <v>0.9226402144443568</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.2457901086520309</v>
       </c>
       <c r="K5">
-        <v>8.863084396863968</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>12.68099969655222</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2072242018916057</v>
+        <v>0.2057367085849364</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02231104374382653</v>
+        <v>0.7699104512877852</v>
       </c>
       <c r="E6">
-        <v>1.187274137317786</v>
+        <v>0.3708364016745662</v>
       </c>
       <c r="F6">
-        <v>1.742477990547101</v>
+        <v>5.529604247776376</v>
       </c>
       <c r="G6">
-        <v>0.4817889996135278</v>
+        <v>0.0007013896798258035</v>
       </c>
       <c r="H6">
-        <v>0.9139552640939712</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.2438845873629845</v>
       </c>
       <c r="K6">
-        <v>8.795257320556544</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>12.57216401299866</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2171444127400406</v>
+        <v>0.215770915373227</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02522158414285514</v>
+        <v>0.8277696931795901</v>
       </c>
       <c r="E7">
-        <v>1.260633335896898</v>
+        <v>0.394148013149767</v>
       </c>
       <c r="F7">
-        <v>1.858365931290919</v>
+        <v>5.907693867197708</v>
       </c>
       <c r="G7">
-        <v>0.5155950259168947</v>
+        <v>0.0006881783740936218</v>
       </c>
       <c r="H7">
-        <v>0.9752734313287164</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.2573066069103618</v>
       </c>
       <c r="K7">
-        <v>9.26790986823849</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>13.33811118479397</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2615254720659266</v>
+        <v>0.2612059996534697</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.04096349759854689</v>
+        <v>1.131093334901635</v>
       </c>
       <c r="E8">
-        <v>1.605439721694182</v>
+        <v>0.5089189218274299</v>
       </c>
       <c r="F8">
-        <v>2.422067494709282</v>
+        <v>8.060202671668463</v>
       </c>
       <c r="G8">
-        <v>0.6801568457169509</v>
+        <v>0.0006248883986128417</v>
       </c>
       <c r="H8">
-        <v>1.276411894446056</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.3232964433921666</v>
       </c>
       <c r="K8">
-        <v>11.41056947282871</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>17.08913281452988</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.351632921150383</v>
+        <v>0.2612059996534697</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.08920825985413927</v>
+        <v>1.131093334901635</v>
       </c>
       <c r="E9">
-        <v>2.412785028297023</v>
+        <v>0.5089189218274299</v>
       </c>
       <c r="F9">
-        <v>3.831132862129436</v>
+        <v>8.060202671668463</v>
       </c>
       <c r="G9">
-        <v>1.092867266335233</v>
+        <v>0.0006248883986128417</v>
       </c>
       <c r="H9">
-        <v>2.044126573727425</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.3232964433921666</v>
       </c>
       <c r="K9">
-        <v>15.96316038020512</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>17.08913281452988</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.420940133556428</v>
+        <v>0.2612059996534697</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1472160333295989</v>
+        <v>1.131093334901635</v>
       </c>
       <c r="E10">
-        <v>3.182866267304689</v>
+        <v>0.5089189218274299</v>
       </c>
       <c r="F10">
-        <v>5.243087692663096</v>
+        <v>8.060202671668463</v>
       </c>
       <c r="G10">
-        <v>1.508670626923902</v>
+        <v>0.0006248883986128417</v>
       </c>
       <c r="H10">
-        <v>2.828198060426004</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.3232964433921666</v>
       </c>
       <c r="K10">
-        <v>19.75567888350474</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>17.08913281452988</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4535978231791518</v>
+        <v>0.2612059996534697</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1841867859635187</v>
+        <v>1.131093334901635</v>
       </c>
       <c r="E11">
-        <v>3.618833864182264</v>
+        <v>0.5089189218274299</v>
       </c>
       <c r="F11">
-        <v>6.054804157399843</v>
+        <v>8.060202671668463</v>
       </c>
       <c r="G11">
-        <v>1.748750852565635</v>
+        <v>0.0006248883986128417</v>
       </c>
       <c r="H11">
-        <v>3.284057356001497</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.3232964433921666</v>
       </c>
       <c r="K11">
-        <v>21.68089385798311</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>17.08913281452988</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4661947103555519</v>
+        <v>0.2612059996534697</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.2007436573902908</v>
+        <v>1.131093334901635</v>
       </c>
       <c r="E12">
-        <v>3.805078545944852</v>
+        <v>0.5089189218274299</v>
       </c>
       <c r="F12">
-        <v>6.402039971831897</v>
+        <v>8.060202671668463</v>
       </c>
       <c r="G12">
-        <v>1.851684578227037</v>
+        <v>0.0006248883986128417</v>
       </c>
       <c r="H12">
-        <v>3.480060720467733</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.3232964433921666</v>
       </c>
       <c r="K12">
-        <v>22.45628074168042</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>17.08913281452988</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.463469886881299</v>
+        <v>0.2612059996534697</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1970367385025256</v>
+        <v>1.131093334901635</v>
       </c>
       <c r="E13">
-        <v>3.763788624723531</v>
+        <v>0.5089189218274299</v>
       </c>
       <c r="F13">
-        <v>6.325080226089597</v>
+        <v>8.060202671668463</v>
       </c>
       <c r="G13">
-        <v>1.828858789596438</v>
+        <v>0.0006248883986128417</v>
       </c>
       <c r="H13">
-        <v>3.43657021776238</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.3232964433921666</v>
       </c>
       <c r="K13">
-        <v>22.28677492699842</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>17.08913281452988</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4546290033308367</v>
+        <v>0.2612059996534697</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1854883077539426</v>
+        <v>1.131093334901635</v>
       </c>
       <c r="E14">
-        <v>3.633651032354393</v>
+        <v>0.5089189218274299</v>
       </c>
       <c r="F14">
-        <v>6.082434203158698</v>
+        <v>8.060202671668463</v>
       </c>
       <c r="G14">
-        <v>1.756936330237266</v>
+        <v>0.0006248883986128417</v>
       </c>
       <c r="H14">
-        <v>3.299632530438615</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.3232964433921666</v>
       </c>
       <c r="K14">
-        <v>21.74360155160025</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>17.08913281452988</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4492464773950502</v>
+        <v>0.2612059996534697</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1787939266468186</v>
+        <v>1.131093334901635</v>
       </c>
       <c r="E15">
-        <v>3.557094375376991</v>
+        <v>0.5089189218274299</v>
       </c>
       <c r="F15">
-        <v>5.939682903854077</v>
+        <v>8.060202671668463</v>
       </c>
       <c r="G15">
-        <v>1.714655351277742</v>
+        <v>0.0006248883986128417</v>
       </c>
       <c r="H15">
-        <v>3.219202986591753</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.3232964433921666</v>
       </c>
       <c r="K15">
-        <v>21.41769690687067</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>17.08913281452988</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4188334636434092</v>
+        <v>0.2612059996534697</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1450831644317176</v>
+        <v>1.131093334901635</v>
       </c>
       <c r="E16">
-        <v>3.156692703462511</v>
+        <v>0.5089189218274299</v>
       </c>
       <c r="F16">
-        <v>5.194510841063732</v>
+        <v>8.060202671668463</v>
       </c>
       <c r="G16">
-        <v>1.494327209034154</v>
+        <v>0.0006248883986128417</v>
       </c>
       <c r="H16">
-        <v>2.801026555445475</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.3232964433921666</v>
       </c>
       <c r="K16">
-        <v>19.63510225859534</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>17.08913281452988</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.4005018717386548</v>
+        <v>0.2612059996534697</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1276238806185219</v>
+        <v>1.131093334901635</v>
       </c>
       <c r="E17">
-        <v>2.937290868512065</v>
+        <v>0.5089189218274299</v>
       </c>
       <c r="F17">
-        <v>4.788515802866158</v>
+        <v>8.060202671668463</v>
       </c>
       <c r="G17">
-        <v>1.374554296999648</v>
+        <v>0.0006248883986128417</v>
       </c>
       <c r="H17">
-        <v>2.574447537846211</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.3232964433921666</v>
       </c>
       <c r="K17">
-        <v>18.6016927940197</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>17.08913281452988</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3900589018343368</v>
+        <v>0.2612059996534697</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1184907909805304</v>
+        <v>1.131093334901635</v>
       </c>
       <c r="E18">
-        <v>2.818412730379478</v>
+        <v>0.5089189218274299</v>
       </c>
       <c r="F18">
-        <v>4.569647848897375</v>
+        <v>8.060202671668463</v>
       </c>
       <c r="G18">
-        <v>1.310064681266823</v>
+        <v>0.0006248883986128417</v>
       </c>
       <c r="H18">
-        <v>2.452697642306461</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.3232964433921666</v>
       </c>
       <c r="K18">
-        <v>18.0246642411015</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>17.08913281452988</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3865389585296555</v>
+        <v>0.2612059996534697</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1155347570301402</v>
+        <v>1.131093334901635</v>
       </c>
       <c r="E19">
-        <v>2.779253023459432</v>
+        <v>0.5089189218274299</v>
       </c>
       <c r="F19">
-        <v>4.49775625038572</v>
+        <v>8.060202671668463</v>
       </c>
       <c r="G19">
-        <v>1.288893802912895</v>
+        <v>0.0006248883986128417</v>
       </c>
       <c r="H19">
-        <v>2.412769704934675</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.3232964433921666</v>
       </c>
       <c r="K19">
-        <v>17.83192357604588</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>17.08913281452988</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.4024424969769456</v>
+        <v>0.2612059996534697</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1293833416647914</v>
+        <v>1.131093334901635</v>
       </c>
       <c r="E20">
-        <v>2.959847213054132</v>
+        <v>0.5089189218274299</v>
       </c>
       <c r="F20">
-        <v>4.830141985859598</v>
+        <v>8.060202671668463</v>
       </c>
       <c r="G20">
-        <v>1.386825730925253</v>
+        <v>0.0006248883986128417</v>
       </c>
       <c r="H20">
-        <v>2.597635112579468</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.3232964433921666</v>
       </c>
       <c r="K20">
-        <v>18.70981584007711</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>17.08913281452988</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.457218758403215</v>
+        <v>0.2612059996534697</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1887979160566928</v>
+        <v>1.131093334901635</v>
       </c>
       <c r="E21">
-        <v>3.671188282391498</v>
+        <v>0.5089189218274299</v>
       </c>
       <c r="F21">
-        <v>6.152430803523913</v>
+        <v>8.060202671668463</v>
       </c>
       <c r="G21">
-        <v>1.777676964862707</v>
+        <v>0.0006248883986128417</v>
       </c>
       <c r="H21">
-        <v>3.339106391153607</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.3232964433921666</v>
       </c>
       <c r="K21">
-        <v>21.90167117982628</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>17.08913281452988</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4944398232233311</v>
+        <v>0.2612059996534697</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.2440146605180686</v>
+        <v>1.131093334901635</v>
       </c>
       <c r="E22">
-        <v>4.272521478787837</v>
+        <v>0.5089189218274299</v>
       </c>
       <c r="F22">
-        <v>7.27047455821571</v>
+        <v>8.060202671668463</v>
       </c>
       <c r="G22">
-        <v>2.109734246926223</v>
+        <v>0.0006248883986128417</v>
       </c>
       <c r="H22">
-        <v>3.972682665844701</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.3232964433921666</v>
       </c>
       <c r="K22">
-        <v>24.28159735686285</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>17.08913281452988</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4744054000580462</v>
+        <v>0.2612059996534697</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.212368323569585</v>
+        <v>1.131093334901635</v>
       </c>
       <c r="E23">
-        <v>3.933162641448973</v>
+        <v>0.5089189218274299</v>
       </c>
       <c r="F23">
-        <v>6.640608941309353</v>
+        <v>8.060202671668463</v>
       </c>
       <c r="G23">
-        <v>1.922486300546836</v>
+        <v>0.0006248883986128417</v>
       </c>
       <c r="H23">
-        <v>3.615052115329306</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.3232964433921666</v>
       </c>
       <c r="K23">
-        <v>22.97348404255933</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>17.08913281452988</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.4015648452809728</v>
+        <v>0.2612059996534697</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1285851342941058</v>
+        <v>1.131093334901635</v>
       </c>
       <c r="E24">
-        <v>2.949627404878242</v>
+        <v>0.5089189218274299</v>
       </c>
       <c r="F24">
-        <v>4.811278428363352</v>
+        <v>8.060202671668463</v>
       </c>
       <c r="G24">
-        <v>1.381264490862549</v>
+        <v>0.0006248883986128417</v>
       </c>
       <c r="H24">
-        <v>2.587126045932834</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.3232964433921666</v>
       </c>
       <c r="K24">
-        <v>18.6608812519317</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>17.08913281452988</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3268220180354007</v>
+        <v>0.2612059996534697</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.07338877809322497</v>
+        <v>1.131093334901635</v>
       </c>
       <c r="E25">
-        <v>2.173053873667811</v>
+        <v>0.5089189218274299</v>
       </c>
       <c r="F25">
-        <v>3.402624765400304</v>
+        <v>8.060202671668463</v>
       </c>
       <c r="G25">
-        <v>0.9671285773067098</v>
+        <v>0.0006248883986128417</v>
       </c>
       <c r="H25">
-        <v>1.808827243120575</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.3232964433921666</v>
       </c>
       <c r="K25">
-        <v>14.67557546016323</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
+        <v>17.08913281452988</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_52/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_52/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2739087112820897</v>
+        <v>1.060861955857717</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1.232445061531166</v>
+        <v>0.04166309621099984</v>
       </c>
       <c r="E2">
-        <v>0.5447276146580293</v>
+        <v>0.06116819355421033</v>
       </c>
       <c r="F2">
-        <v>8.83356135912868</v>
+        <v>1.25488766466701</v>
       </c>
       <c r="G2">
-        <v>0.0006055809208261787</v>
+        <v>1.005624766893632</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.6848285864616059</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.3437529027074788</v>
+        <v>0.1014586801701332</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.51177489761659</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.3096025385546142</v>
       </c>
       <c r="M2">
-        <v>18.25068569486999</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>1.28202065265409</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2375594666869318</v>
+        <v>0.9497556449726972</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.963631102511016</v>
+        <v>0.03993371979076343</v>
       </c>
       <c r="E3">
-        <v>0.447035324488148</v>
+        <v>0.06166288280696897</v>
       </c>
       <c r="F3">
-        <v>6.838979126064913</v>
+        <v>1.207154027205263</v>
       </c>
       <c r="G3">
-        <v>0.0006586985013719868</v>
+        <v>0.9570505187869003</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.6698284838794137</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2877590069831513</v>
+        <v>0.1034518763573971</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1.310315814382392</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2704105698560682</v>
       </c>
       <c r="M3">
-        <v>15.07121808381325</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>1.336616798644332</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2158888451091627</v>
+        <v>0.8824765446909737</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.8284659388354214</v>
+        <v>0.03889777908519676</v>
       </c>
       <c r="E4">
-        <v>0.3944255691811875</v>
+        <v>0.06200568484400204</v>
       </c>
       <c r="F4">
-        <v>5.912314674590732</v>
+        <v>1.179852131074895</v>
       </c>
       <c r="G4">
-        <v>0.0006880219510150957</v>
+        <v>0.929040159051354</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.6616636542828331</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2574664489063139</v>
+        <v>0.1047350836439263</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1.187408378459736</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.2465642941985635</v>
       </c>
       <c r="M4">
-        <v>13.34722393540221</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>1.371622819089907</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2071770232389269</v>
+        <v>0.8552783471483565</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.7780527651329976</v>
+        <v>0.03848187702007166</v>
       </c>
       <c r="E5">
-        <v>0.3741467683914195</v>
+        <v>0.06215507359943384</v>
       </c>
       <c r="F5">
-        <v>5.582090004444467</v>
+        <v>1.16920537253246</v>
       </c>
       <c r="G5">
-        <v>0.000699504434329006</v>
+        <v>0.918055666300603</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.6585873299167702</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2457901086520309</v>
+        <v>0.105272844634916</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1.137490318160559</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.236895220121724</v>
       </c>
       <c r="M5">
-        <v>12.68099969655222</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>1.386252519535159</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2057367085849364</v>
+        <v>0.8507748033170799</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.7699104512877852</v>
+        <v>0.03841318716906983</v>
       </c>
       <c r="E6">
-        <v>0.3708364016745662</v>
+        <v>0.06218046140168987</v>
       </c>
       <c r="F6">
-        <v>5.529604247776376</v>
+        <v>1.167465693592931</v>
       </c>
       <c r="G6">
-        <v>0.0007013896798258035</v>
+        <v>0.9162569271201022</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.6580913267518014</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2438845873629845</v>
+        <v>0.1053630334894442</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1.129210727838029</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.2352924291295579</v>
       </c>
       <c r="M6">
-        <v>12.57216401299866</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>1.388703539318328</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.215770915373227</v>
+        <v>0.8821088782497952</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.8277696931795901</v>
+        <v>0.03889214509987227</v>
       </c>
       <c r="E7">
-        <v>0.394148013149767</v>
+        <v>0.06200766046477835</v>
       </c>
       <c r="F7">
-        <v>5.907693867197708</v>
+        <v>1.179706638601772</v>
       </c>
       <c r="G7">
-        <v>0.0006881783740936218</v>
+        <v>0.9288903111390283</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.661621165252356</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2573066069103618</v>
+        <v>0.1047422760870544</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1.186734526275728</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.2464337054321959</v>
       </c>
       <c r="M7">
-        <v>13.33811118479397</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>1.371818655706676</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2612059996534697</v>
+        <v>1.022346126603196</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>1.131093334901635</v>
+        <v>0.04106126642366448</v>
       </c>
       <c r="E8">
-        <v>0.5089189218274299</v>
+        <v>0.06133057569209566</v>
       </c>
       <c r="F8">
-        <v>8.060202671668463</v>
+        <v>1.237996715980387</v>
       </c>
       <c r="G8">
-        <v>0.0006248883986128417</v>
+        <v>0.9884834736295858</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.679432195303761</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.3232964433921666</v>
+        <v>0.1021335570200028</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1.442128858585079</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.2960400463471444</v>
       </c>
       <c r="M8">
-        <v>17.08913281452988</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>1.300532104163565</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.2612059996534697</v>
+        <v>1.30568892054319</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1.131093334901635</v>
+        <v>0.04553361062710337</v>
       </c>
       <c r="E9">
-        <v>0.5089189218274299</v>
+        <v>0.06031896975022288</v>
       </c>
       <c r="F9">
-        <v>8.060202671668463</v>
+        <v>1.369463355585779</v>
       </c>
       <c r="G9">
-        <v>0.0006248883986128417</v>
+        <v>1.121012314883941</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.723230224382533</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.3232964433921666</v>
+        <v>0.09749304228506794</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.950724283690164</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.3953529296807261</v>
       </c>
       <c r="M9">
-        <v>17.08913281452988</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>1.17292331010734</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.2612059996534697</v>
+        <v>1.520261923045155</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1.131093334901635</v>
+        <v>0.04897330431757752</v>
       </c>
       <c r="E10">
-        <v>0.5089189218274299</v>
+        <v>0.05977787511649968</v>
       </c>
       <c r="F10">
-        <v>8.060202671668463</v>
+        <v>1.478364361063598</v>
       </c>
       <c r="G10">
-        <v>0.0006248883986128417</v>
+        <v>1.22983408988992</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.7616801766570518</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.3232964433921666</v>
+        <v>0.09437917679764229</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>2.331406597220223</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.4700240494623387</v>
       </c>
       <c r="M10">
-        <v>17.08913281452988</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>1.087203121807832</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.2612059996534697</v>
+        <v>1.619584332468406</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1.131093334901635</v>
+        <v>0.05057666951213946</v>
       </c>
       <c r="E11">
-        <v>0.5089189218274299</v>
+        <v>0.05957791495466846</v>
       </c>
       <c r="F11">
-        <v>8.060202671668463</v>
+        <v>1.531027212939492</v>
       </c>
       <c r="G11">
-        <v>0.0006248883986128417</v>
+        <v>1.282287257492158</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.7807431750869398</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.3232964433921666</v>
+        <v>0.0930281727630522</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>2.506667139569828</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.5044773575503143</v>
       </c>
       <c r="M11">
-        <v>17.08913281452988</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>1.050097971456331</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.2612059996534697</v>
+        <v>1.657469672203206</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1.131093334901635</v>
+        <v>0.05118985085401562</v>
       </c>
       <c r="E12">
-        <v>0.5089189218274299</v>
+        <v>0.05950904983001593</v>
       </c>
       <c r="F12">
-        <v>8.060202671668463</v>
+        <v>1.551458919383606</v>
       </c>
       <c r="G12">
-        <v>0.0006248883986128417</v>
+        <v>1.302615859683982</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.7882069117343917</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.3232964433921666</v>
+        <v>0.09252613604583271</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>2.573383611565362</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.5176038428911625</v>
       </c>
       <c r="M12">
-        <v>17.08913281452988</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>1.036332493447091</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.2612059996534697</v>
+        <v>1.649297727590636</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>1.131093334901635</v>
+        <v>0.05105751550664195</v>
       </c>
       <c r="E13">
-        <v>0.5089189218274299</v>
+        <v>0.05952357265163855</v>
       </c>
       <c r="F13">
-        <v>8.060202671668463</v>
+        <v>1.547036140753946</v>
       </c>
       <c r="G13">
-        <v>0.0006248883986128417</v>
+        <v>1.298216318612248</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.7865882474021078</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3232964433921666</v>
+        <v>0.09263383115753676</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>2.558998671552075</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.514773103106748</v>
       </c>
       <c r="M13">
-        <v>17.08913281452988</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>1.039284209523444</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.2612059996534697</v>
+        <v>1.622695521046523</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1.131093334901635</v>
+        <v>0.05062699277834071</v>
       </c>
       <c r="E14">
-        <v>0.5089189218274299</v>
+        <v>0.05957211069070834</v>
       </c>
       <c r="F14">
-        <v>8.060202671668463</v>
+        <v>1.532698090087507</v>
       </c>
       <c r="G14">
-        <v>0.0006248883986128417</v>
+        <v>1.283950119368285</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.7813521969010537</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.3232964433921666</v>
+        <v>0.09298667748451805</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>2.512148650854357</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.5055556223462787</v>
       </c>
       <c r="M14">
-        <v>17.08913281452988</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>1.048959673941113</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.2612059996534697</v>
+        <v>1.606437463241406</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>1.131093334901635</v>
+        <v>0.05036408406449766</v>
       </c>
       <c r="E15">
-        <v>0.5089189218274299</v>
+        <v>0.05960274110517005</v>
       </c>
       <c r="F15">
-        <v>8.060202671668463</v>
+        <v>1.523980611058164</v>
       </c>
       <c r="G15">
-        <v>0.0006248883986128417</v>
+        <v>1.2752736051402</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.778177459839867</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.3232964433921666</v>
+        <v>0.09320405524842279</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>2.483498654033724</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.4999203489235384</v>
       </c>
       <c r="M15">
-        <v>17.08913281452988</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>1.054923774852575</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.2612059996534697</v>
+        <v>1.513807756845694</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>1.131093334901635</v>
+        <v>0.04886933678553618</v>
       </c>
       <c r="E16">
-        <v>0.5089189218274299</v>
+        <v>0.05979189021773834</v>
       </c>
       <c r="F16">
-        <v>8.060202671668463</v>
+        <v>1.474988938568089</v>
       </c>
       <c r="G16">
-        <v>0.0006248883986128417</v>
+        <v>1.226468981484388</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.7604675802639917</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.3232964433921666</v>
+        <v>0.09446879794407437</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>2.31999899258642</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.4677830420988727</v>
       </c>
       <c r="M16">
-        <v>17.08913281452988</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>1.089667199662976</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.2612059996534697</v>
+        <v>1.457440107171067</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>1.131093334901635</v>
+        <v>0.04796256918607256</v>
       </c>
       <c r="E17">
-        <v>0.5089189218274299</v>
+        <v>0.05991990271086767</v>
       </c>
       <c r="F17">
-        <v>8.060202671668463</v>
+        <v>1.445761730240136</v>
       </c>
       <c r="G17">
-        <v>0.0006248883986128417</v>
+        <v>1.197312901510458</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.7500187444537829</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.3232964433921666</v>
+        <v>0.09526155069322773</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>2.220265230560386</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.4481989402768676</v>
       </c>
       <c r="M17">
-        <v>17.08913281452988</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>1.111474516897353</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.2612059996534697</v>
+        <v>1.425178278067136</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>1.131093334901635</v>
+        <v>0.04744462592493903</v>
       </c>
       <c r="E18">
-        <v>0.5089189218274299</v>
+        <v>0.05999786549798092</v>
       </c>
       <c r="F18">
-        <v>8.060202671668463</v>
+        <v>1.429242386299023</v>
       </c>
       <c r="G18">
-        <v>0.0006248883986128417</v>
+        <v>1.180818039996652</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.7441555826345905</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.3232964433921666</v>
+        <v>0.09572367819339966</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>2.163094198044661</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.4369796892282096</v>
       </c>
       <c r="M18">
-        <v>17.08913281452988</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>1.124194461017787</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.2612059996534697</v>
+        <v>1.414281531114028</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>1.131093334901635</v>
+        <v>0.04726986503883523</v>
       </c>
       <c r="E19">
-        <v>0.5089189218274299</v>
+        <v>0.06002500041607117</v>
       </c>
       <c r="F19">
-        <v>8.060202671668463</v>
+        <v>1.423698088664665</v>
       </c>
       <c r="G19">
-        <v>0.0006248883986128417</v>
+        <v>1.175279173920941</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.7421950661331778</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.3232964433921666</v>
+        <v>0.09588120004362022</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>2.143768820115099</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.4331884819005438</v>
       </c>
       <c r="M19">
-        <v>17.08913281452988</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>1.128531206420845</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.2612059996534697</v>
+        <v>1.463423852201743</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>1.131093334901635</v>
+        <v>0.04805871976451215</v>
       </c>
       <c r="E20">
-        <v>0.5089189218274299</v>
+        <v>0.05990582558562174</v>
       </c>
       <c r="F20">
-        <v>8.060202671668463</v>
+        <v>1.448842578878015</v>
       </c>
       <c r="G20">
-        <v>0.0006248883986128417</v>
+        <v>1.20038787003476</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.7511157223644602</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.3232964433921666</v>
+        <v>0.09517652260126397</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>2.230861722900528</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.4502789734876984</v>
       </c>
       <c r="M20">
-        <v>17.08913281452988</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>1.109134680871591</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.2612059996534697</v>
+        <v>1.63050156153389</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>1.131093334901635</v>
+        <v>0.05075328034915572</v>
       </c>
       <c r="E21">
-        <v>0.5089189218274299</v>
+        <v>0.05955766603462109</v>
       </c>
       <c r="F21">
-        <v>8.060202671668463</v>
+        <v>1.536895902374155</v>
       </c>
       <c r="G21">
-        <v>0.0006248883986128417</v>
+        <v>1.288127459497275</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.7828833438134382</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.3232964433921666</v>
+        <v>0.09288277736933104</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>2.525899750492812</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.5082607709731803</v>
       </c>
       <c r="M21">
-        <v>17.08913281452988</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>1.046109893650183</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.2612059996534697</v>
+        <v>1.741308749557561</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>1.131093334901635</v>
+        <v>0.05254968353142431</v>
       </c>
       <c r="E22">
-        <v>0.5089189218274299</v>
+        <v>0.05937019627758744</v>
       </c>
       <c r="F22">
-        <v>8.060202671668463</v>
+        <v>1.597317764665021</v>
       </c>
       <c r="G22">
-        <v>0.0006248883986128417</v>
+        <v>1.348206836495734</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.8050833046660557</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.3232964433921666</v>
+        <v>0.09143947307401223</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>2.72078493791571</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.5466254426240909</v>
       </c>
       <c r="M22">
-        <v>17.08913281452988</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>1.006590512086348</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.2612059996534697</v>
+        <v>1.682011536204783</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>1.131093334901635</v>
+        <v>0.05158750741435369</v>
       </c>
       <c r="E23">
-        <v>0.5089189218274299</v>
+        <v>0.0594665098488889</v>
       </c>
       <c r="F23">
-        <v>8.060202671668463</v>
+        <v>1.564792309611533</v>
       </c>
       <c r="G23">
-        <v>0.0006248883986128417</v>
+        <v>1.315876286430921</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.7930965039815021</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.3232964433921666</v>
+        <v>0.09220463804434065</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>2.616565133521476</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.5261029326542683</v>
       </c>
       <c r="M23">
-        <v>17.08913281452988</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>1.027525014233959</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.2612059996534697</v>
+        <v>1.460718152499226</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>1.131093334901635</v>
+        <v>0.04801523962742849</v>
       </c>
       <c r="E24">
-        <v>0.5089189218274299</v>
+        <v>0.05991217626857193</v>
       </c>
       <c r="F24">
-        <v>8.060202671668463</v>
+        <v>1.447448846344159</v>
       </c>
       <c r="G24">
-        <v>0.0006248883986128417</v>
+        <v>1.198996847108319</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.7506193314960541</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.3232964433921666</v>
+        <v>0.09521494399151997</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>2.226070531472459</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.4493384669092819</v>
       </c>
       <c r="M24">
-        <v>17.08913281452988</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>1.110191952922655</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.2612059996534697</v>
+        <v>1.228014101765552</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>1.131093334901635</v>
+        <v>0.04429830857826289</v>
       </c>
       <c r="E25">
-        <v>0.5089189218274299</v>
+        <v>0.06055786691903631</v>
       </c>
       <c r="F25">
-        <v>8.060202671668463</v>
+        <v>1.331878149720325</v>
       </c>
       <c r="G25">
-        <v>0.0006248883986128417</v>
+        <v>1.083294735891329</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.7103467921418058</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.3232964433921666</v>
+        <v>0.09869697701562652</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1.812079038847457</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.3682223876661368</v>
       </c>
       <c r="M25">
-        <v>17.08913281452988</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>1.206080711528809</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_52/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_52/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.060861955857717</v>
+        <v>1.241092252849029</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.04166309621099984</v>
+        <v>0.1150248183383553</v>
       </c>
       <c r="E2">
-        <v>0.06116819355421033</v>
+        <v>0.160876770920483</v>
       </c>
       <c r="F2">
-        <v>1.25488766466701</v>
+        <v>2.280691098417122</v>
       </c>
       <c r="G2">
-        <v>1.005624766893632</v>
+        <v>1.577955447602093</v>
       </c>
       <c r="H2">
-        <v>0.6848285864616059</v>
+        <v>1.419242814550003</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1014586801701332</v>
+        <v>0.2394846864840634</v>
       </c>
       <c r="K2">
-        <v>1.51177489761659</v>
+        <v>0.6674023364164725</v>
       </c>
       <c r="L2">
-        <v>0.3096025385546142</v>
+        <v>0.2316168997267027</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.28202065265409</v>
+        <v>2.620626096286461</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9497556449726972</v>
+        <v>1.217650012112159</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.03993371979076343</v>
+        <v>0.1149542754931545</v>
       </c>
       <c r="E3">
-        <v>0.06166288280696897</v>
+        <v>0.161498686704741</v>
       </c>
       <c r="F3">
-        <v>1.207154027205263</v>
+        <v>2.281751497753461</v>
       </c>
       <c r="G3">
-        <v>0.9570505187869003</v>
+        <v>1.575296100191409</v>
       </c>
       <c r="H3">
-        <v>0.6698284838794137</v>
+        <v>1.423218395150712</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1034518763573971</v>
+        <v>0.2406192785472721</v>
       </c>
       <c r="K3">
-        <v>1.310315814382392</v>
+        <v>0.6128881741464056</v>
       </c>
       <c r="L3">
-        <v>0.2704105698560682</v>
+        <v>0.2221006041640692</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.336616798644332</v>
+        <v>2.643506227855685</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8824765446909737</v>
+        <v>1.20382441845797</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.03889777908519676</v>
+        <v>0.1149349262874253</v>
       </c>
       <c r="E4">
-        <v>0.06200568484400204</v>
+        <v>0.1619101887677443</v>
       </c>
       <c r="F4">
-        <v>1.179852131074895</v>
+        <v>2.283439278074553</v>
       </c>
       <c r="G4">
-        <v>0.929040159051354</v>
+        <v>1.574491615809464</v>
       </c>
       <c r="H4">
-        <v>0.6616636542828331</v>
+        <v>1.426232704689625</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1047350836439263</v>
+        <v>0.2413564485771298</v>
       </c>
       <c r="K4">
-        <v>1.187408378459736</v>
+        <v>0.5796676717363596</v>
       </c>
       <c r="L4">
-        <v>0.2465642941985635</v>
+        <v>0.2163652705041841</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.371622819089907</v>
+        <v>2.658297508788284</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8552783471483565</v>
+        <v>1.198333720386586</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.03848187702007166</v>
+        <v>0.1149330936478918</v>
       </c>
       <c r="E5">
-        <v>0.06215507359943384</v>
+        <v>0.1620853511240394</v>
       </c>
       <c r="F5">
-        <v>1.16920537253246</v>
+        <v>2.284387863616928</v>
       </c>
       <c r="G5">
-        <v>0.918055666300603</v>
+        <v>1.57437200994157</v>
       </c>
       <c r="H5">
-        <v>0.6585873299167702</v>
+        <v>1.427605309141057</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.105272844634916</v>
+        <v>0.2416670616631214</v>
       </c>
       <c r="K5">
-        <v>1.137490318160559</v>
+        <v>0.5661936418007372</v>
       </c>
       <c r="L5">
-        <v>0.236895220121724</v>
+        <v>0.2140552639017272</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.386252519535159</v>
+        <v>2.664511859329256</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8507748033170799</v>
+        <v>1.197430666685705</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.03841318716906983</v>
+        <v>0.1149331556607471</v>
       </c>
       <c r="E6">
-        <v>0.06218046140168987</v>
+        <v>0.1621148885126571</v>
       </c>
       <c r="F6">
-        <v>1.167465693592931</v>
+        <v>2.284561130787125</v>
       </c>
       <c r="G6">
-        <v>0.9162569271201022</v>
+        <v>1.574364723912751</v>
       </c>
       <c r="H6">
-        <v>0.6580913267518014</v>
+        <v>1.427841944052943</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1053630334894442</v>
+        <v>0.2417192559884689</v>
       </c>
       <c r="K6">
-        <v>1.129210727838029</v>
+        <v>0.5639601414583524</v>
       </c>
       <c r="L6">
-        <v>0.2352924291295579</v>
+        <v>0.2136733342526895</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.388703539318328</v>
+        <v>2.66555502891779</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8821088782497952</v>
+        <v>1.203749787919179</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03889214509987227</v>
+        <v>0.1149348770307839</v>
       </c>
       <c r="E7">
-        <v>0.06200766046477835</v>
+        <v>0.1619125207908096</v>
       </c>
       <c r="F7">
-        <v>1.179706638601772</v>
+        <v>2.283451014904628</v>
       </c>
       <c r="G7">
-        <v>0.9288903111390283</v>
+        <v>1.574489159752858</v>
       </c>
       <c r="H7">
-        <v>0.661621165252356</v>
+        <v>1.42625063193799</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1047422760870544</v>
+        <v>0.2413605962457757</v>
       </c>
       <c r="K7">
-        <v>1.186734526275728</v>
+        <v>0.5794856982665806</v>
       </c>
       <c r="L7">
-        <v>0.2464337054321959</v>
+        <v>0.216334006724253</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.371818655706676</v>
+        <v>2.658380561413885</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.022346126603196</v>
+        <v>1.232891765198389</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.04106126642366448</v>
+        <v>0.1149955369103957</v>
       </c>
       <c r="E8">
-        <v>0.06133057569209566</v>
+        <v>0.1610850657545324</v>
       </c>
       <c r="F8">
-        <v>1.237996715980387</v>
+        <v>2.280841623429083</v>
       </c>
       <c r="G8">
-        <v>0.9884834736295858</v>
+        <v>1.576866529025338</v>
       </c>
       <c r="H8">
-        <v>0.679432195303761</v>
+        <v>1.420494661468879</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1021335570200028</v>
+        <v>0.2398674946083839</v>
       </c>
       <c r="K8">
-        <v>1.442128858585079</v>
+        <v>0.6485538787785288</v>
       </c>
       <c r="L8">
-        <v>0.2960400463471444</v>
+        <v>0.2283133844255474</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.300532104163565</v>
+        <v>2.628361004115959</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.30568892054319</v>
+        <v>1.294528229009558</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.04553361062710337</v>
+        <v>0.1153035529592579</v>
       </c>
       <c r="E9">
-        <v>0.06031896975022288</v>
+        <v>0.1596968441071196</v>
       </c>
       <c r="F9">
-        <v>1.369463355585779</v>
+        <v>2.283947648192608</v>
       </c>
       <c r="G9">
-        <v>1.121012314883941</v>
+        <v>1.588106867952732</v>
       </c>
       <c r="H9">
-        <v>0.723230224382533</v>
+        <v>1.413752960273328</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.09749304228506794</v>
+        <v>0.2372601726892345</v>
       </c>
       <c r="K9">
-        <v>1.950724283690164</v>
+        <v>0.7859821657690418</v>
       </c>
       <c r="L9">
-        <v>0.3953529296807261</v>
+        <v>0.2526564273957774</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.17292331010734</v>
+        <v>2.575385440001725</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.520261923045155</v>
+        <v>1.342531341851014</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.04897330431757752</v>
+        <v>0.11564375505003</v>
       </c>
       <c r="E10">
-        <v>0.05977787511649968</v>
+        <v>0.1588187528059368</v>
       </c>
       <c r="F10">
-        <v>1.478364361063598</v>
+        <v>2.291242781475347</v>
       </c>
       <c r="G10">
-        <v>1.22983408988992</v>
+        <v>1.600386711131421</v>
       </c>
       <c r="H10">
-        <v>0.7616801766570518</v>
+        <v>1.411568397081311</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.09437917679764229</v>
+        <v>0.2355387635080586</v>
       </c>
       <c r="K10">
-        <v>2.331406597220223</v>
+        <v>0.8881600816483797</v>
       </c>
       <c r="L10">
-        <v>0.4700240494623387</v>
+        <v>0.2710583259779327</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.087203121807832</v>
+        <v>2.540054075858787</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.619584332468406</v>
+        <v>1.364956183342997</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.05057666951213946</v>
+        <v>0.1158229771540746</v>
       </c>
       <c r="E11">
-        <v>0.05957791495466846</v>
+        <v>0.1584498591940573</v>
       </c>
       <c r="F11">
-        <v>1.531027212939492</v>
+        <v>2.295650412534485</v>
       </c>
       <c r="G11">
-        <v>1.282287257492158</v>
+        <v>1.606849047635848</v>
       </c>
       <c r="H11">
-        <v>0.7807431750869398</v>
+        <v>1.411175323675479</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0930281727630522</v>
+        <v>0.2347975432223368</v>
       </c>
       <c r="K11">
-        <v>2.506667139569828</v>
+        <v>0.9349064935367437</v>
       </c>
       <c r="L11">
-        <v>0.5044773575503143</v>
+        <v>0.2795418087394665</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.050097971456331</v>
+        <v>2.524759880147045</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.657469672203206</v>
+        <v>1.373532023526764</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.05118985085401562</v>
+        <v>0.1158943370894576</v>
       </c>
       <c r="E12">
-        <v>0.05950904983001593</v>
+        <v>0.1583145447546581</v>
       </c>
       <c r="F12">
-        <v>1.551458919383606</v>
+        <v>2.297476035043474</v>
       </c>
       <c r="G12">
-        <v>1.302615859683982</v>
+        <v>1.609422314324348</v>
       </c>
       <c r="H12">
-        <v>0.7882069117343917</v>
+        <v>1.411112801820565</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.09252613604583271</v>
+        <v>0.2345228612473882</v>
       </c>
       <c r="K12">
-        <v>2.573383611565362</v>
+        <v>0.9526460603857458</v>
       </c>
       <c r="L12">
-        <v>0.5176038428911625</v>
+        <v>0.2827703695230923</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.036332493447091</v>
+        <v>2.519080282820127</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.649297727590636</v>
+        <v>1.371681333366752</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.05105751550664195</v>
+        <v>0.1158788135242119</v>
       </c>
       <c r="E13">
-        <v>0.05952357265163855</v>
+        <v>0.1583434927026364</v>
       </c>
       <c r="F13">
-        <v>1.547036140753946</v>
+        <v>2.297075892885786</v>
       </c>
       <c r="G13">
-        <v>1.298216318612248</v>
+        <v>1.608862504034562</v>
       </c>
       <c r="H13">
-        <v>0.7865882474021078</v>
+        <v>1.411122428448522</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.09263383115753676</v>
+        <v>0.2345817522510236</v>
       </c>
       <c r="K13">
-        <v>2.558998671552075</v>
+        <v>0.948823856471563</v>
       </c>
       <c r="L13">
-        <v>0.514773103106748</v>
+        <v>0.2820743290842671</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.039284209523444</v>
+        <v>2.520298504020353</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.622695521046523</v>
+        <v>1.365660041529679</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.05062699277834071</v>
+        <v>0.1158287781296821</v>
       </c>
       <c r="E14">
-        <v>0.05957211069070834</v>
+        <v>0.1584386391527381</v>
       </c>
       <c r="F14">
-        <v>1.532698090087507</v>
+        <v>2.295797470439979</v>
       </c>
       <c r="G14">
-        <v>1.283950119368285</v>
+        <v>1.607058223466737</v>
       </c>
       <c r="H14">
-        <v>0.7813521969010537</v>
+        <v>1.41116845015037</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.09298667748451805</v>
+        <v>0.2347748247779959</v>
       </c>
       <c r="K14">
-        <v>2.512148650854357</v>
+        <v>0.9363651848844654</v>
       </c>
       <c r="L14">
-        <v>0.5055556223462787</v>
+        <v>0.2798071033313079</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.048959673941113</v>
+        <v>2.524290371511142</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.606437463241406</v>
+        <v>1.361982755651866</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.05036408406449766</v>
+        <v>0.1157985840752502</v>
       </c>
       <c r="E15">
-        <v>0.05960274110517005</v>
+        <v>0.1584974887119541</v>
       </c>
       <c r="F15">
-        <v>1.523980611058164</v>
+        <v>2.295034785410351</v>
       </c>
       <c r="G15">
-        <v>1.2752736051402</v>
+        <v>1.60596947788099</v>
       </c>
       <c r="H15">
-        <v>0.778177459839867</v>
+        <v>1.411207880491133</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.09320405524842279</v>
+        <v>0.2348938684186663</v>
       </c>
       <c r="K15">
-        <v>2.483498654033724</v>
+        <v>0.9287387881239511</v>
       </c>
       <c r="L15">
-        <v>0.4999203489235384</v>
+        <v>0.2784204490688182</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.054923774852575</v>
+        <v>2.526750091368804</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.513807756845694</v>
+        <v>1.341077613672098</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.04886933678553618</v>
+        <v>0.1156325325479628</v>
       </c>
       <c r="E16">
-        <v>0.05979189021773834</v>
+        <v>0.1588434743239162</v>
       </c>
       <c r="F16">
-        <v>1.474988938568089</v>
+        <v>2.290976641989246</v>
       </c>
       <c r="G16">
-        <v>1.226468981484388</v>
+        <v>1.599982023963676</v>
       </c>
       <c r="H16">
-        <v>0.7604675802639917</v>
+        <v>1.411606168335453</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.09446879794407437</v>
+        <v>0.2355880448195471</v>
       </c>
       <c r="K16">
-        <v>2.31999899258642</v>
+        <v>0.8851103939804545</v>
       </c>
       <c r="L16">
-        <v>0.4677830420988727</v>
+        <v>0.2705061622747138</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.089667199662976</v>
+        <v>2.541069253661249</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.457440107171067</v>
+        <v>1.328403218396147</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.04796256918607256</v>
+        <v>0.115536912695088</v>
       </c>
       <c r="E17">
-        <v>0.05991990271086767</v>
+        <v>0.1590635395162545</v>
       </c>
       <c r="F17">
-        <v>1.445761730240136</v>
+        <v>2.288765992231973</v>
       </c>
       <c r="G17">
-        <v>1.197312901510458</v>
+        <v>1.596533414370114</v>
       </c>
       <c r="H17">
-        <v>0.7500187444537829</v>
+        <v>1.412004319519241</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.09526155069322773</v>
+        <v>0.2360246081091404</v>
       </c>
       <c r="K17">
-        <v>2.220265230560386</v>
+        <v>0.8584134067600928</v>
       </c>
       <c r="L17">
-        <v>0.4481989402768676</v>
+        <v>0.265679706367024</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.111474516897353</v>
+        <v>2.550052969206853</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.425178278067136</v>
+        <v>1.321168615888439</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.04744462592493903</v>
+        <v>0.1154842187065839</v>
       </c>
       <c r="E18">
-        <v>0.05999786549798092</v>
+        <v>0.1591929920894994</v>
       </c>
       <c r="F18">
-        <v>1.429242386299023</v>
+        <v>2.287596993507577</v>
       </c>
       <c r="G18">
-        <v>1.180818039996652</v>
+        <v>1.594632327310777</v>
       </c>
       <c r="H18">
-        <v>0.7441555826345905</v>
+        <v>1.412289868882283</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.09572367819339966</v>
+        <v>0.2362796485890124</v>
       </c>
       <c r="K18">
-        <v>2.163094198044661</v>
+        <v>0.8430829892155884</v>
       </c>
       <c r="L18">
-        <v>0.4369796892282096</v>
+        <v>0.2629142395257276</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.124194461017787</v>
+        <v>2.555293409654027</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.414281531114028</v>
+        <v>1.318728630025106</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.04726986503883523</v>
+        <v>0.1154667739170954</v>
       </c>
       <c r="E19">
-        <v>0.06002500041607117</v>
+        <v>0.1592373171093699</v>
       </c>
       <c r="F19">
-        <v>1.423698088664665</v>
+        <v>2.287218798252454</v>
       </c>
       <c r="G19">
-        <v>1.175279173920941</v>
+        <v>1.594002810966018</v>
       </c>
       <c r="H19">
-        <v>0.7421950661331778</v>
+        <v>1.412396263999241</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.09588120004362022</v>
+        <v>0.2363666782726739</v>
       </c>
       <c r="K19">
-        <v>2.143768820115099</v>
+        <v>0.8378966768391933</v>
       </c>
       <c r="L19">
-        <v>0.4331884819005438</v>
+        <v>0.2619797209043355</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.128531206420845</v>
+        <v>2.55708031038677</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.463423852201743</v>
+        <v>1.329746702078069</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.04805871976451215</v>
+        <v>0.1155468533182358</v>
       </c>
       <c r="E20">
-        <v>0.05990582558562174</v>
+        <v>0.1590398155706625</v>
       </c>
       <c r="F20">
-        <v>1.448842578878015</v>
+        <v>2.28899071081527</v>
       </c>
       <c r="G20">
-        <v>1.20038787003476</v>
+        <v>1.596891989322359</v>
       </c>
       <c r="H20">
-        <v>0.7511157223644602</v>
+        <v>1.411956084005652</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.09517652260126397</v>
+        <v>0.2359777274651504</v>
       </c>
       <c r="K20">
-        <v>2.230861722900528</v>
+        <v>0.8612527639496932</v>
       </c>
       <c r="L20">
-        <v>0.4502789734876984</v>
+        <v>0.2661923963291741</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.109134680871591</v>
+        <v>2.549089056236944</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.63050156153389</v>
+        <v>1.367426364170313</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.05075328034915572</v>
+        <v>0.1158433801550487</v>
       </c>
       <c r="E21">
-        <v>0.05955766603462109</v>
+        <v>0.158410573656127</v>
       </c>
       <c r="F21">
-        <v>1.536895902374155</v>
+        <v>2.29616872584819</v>
       </c>
       <c r="G21">
-        <v>1.288127459497275</v>
+        <v>1.607584760521348</v>
       </c>
       <c r="H21">
-        <v>0.7828833438134382</v>
+        <v>1.411152589996817</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.09288277736933104</v>
+        <v>0.2347179519368767</v>
       </c>
       <c r="K21">
-        <v>2.525899750492812</v>
+        <v>0.9400235784574704</v>
       </c>
       <c r="L21">
-        <v>0.5082607709731803</v>
+        <v>0.2804726077622917</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.046109893650183</v>
+        <v>2.523114823465505</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.741308749557561</v>
+        <v>1.392541810716153</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.05254968353142431</v>
+        <v>0.1160575224798492</v>
       </c>
       <c r="E22">
-        <v>0.05937019627758744</v>
+        <v>0.1580248360861694</v>
       </c>
       <c r="F22">
-        <v>1.597317764665021</v>
+        <v>2.301772433015387</v>
       </c>
       <c r="G22">
-        <v>1.348206836495734</v>
+        <v>1.615308289093008</v>
       </c>
       <c r="H22">
-        <v>0.8050833046660557</v>
+        <v>1.411130613782859</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.09143947307401223</v>
+        <v>0.2339295926267351</v>
       </c>
       <c r="K22">
-        <v>2.72078493791571</v>
+        <v>0.9917245003211406</v>
       </c>
       <c r="L22">
-        <v>0.5466254426240909</v>
+        <v>0.289899053056871</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.006590512086348</v>
+        <v>2.506791919227148</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.682011536204783</v>
+        <v>1.379092593811777</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.05158750741435369</v>
+        <v>0.1159413774189488</v>
       </c>
       <c r="E23">
-        <v>0.0594665098488889</v>
+        <v>0.1582283827675104</v>
       </c>
       <c r="F23">
-        <v>1.564792309611533</v>
+        <v>2.298698156355712</v>
       </c>
       <c r="G23">
-        <v>1.315876286430921</v>
+        <v>1.611118784726642</v>
       </c>
       <c r="H23">
-        <v>0.7930965039815021</v>
+        <v>1.411096321362862</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.09220463804434065</v>
+        <v>0.2343471600185838</v>
       </c>
       <c r="K23">
-        <v>2.616565133521476</v>
+        <v>0.9641107851060156</v>
       </c>
       <c r="L23">
-        <v>0.5261029326542683</v>
+        <v>0.2848594620488285</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.027525014233959</v>
+        <v>2.515444007020285</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.460718152499226</v>
+        <v>1.329139150853223</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.04801523962742849</v>
+        <v>0.1155423520626009</v>
       </c>
       <c r="E24">
-        <v>0.05991217626857193</v>
+        <v>0.1590505320262929</v>
       </c>
       <c r="F24">
-        <v>1.447448846344159</v>
+        <v>2.288888798016899</v>
       </c>
       <c r="G24">
-        <v>1.198996847108319</v>
+        <v>1.596729623522648</v>
       </c>
       <c r="H24">
-        <v>0.7506193314960541</v>
+        <v>1.41197771481832</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.09521494399151997</v>
+        <v>0.2359989095744783</v>
       </c>
       <c r="K24">
-        <v>2.226070531472459</v>
+        <v>0.8599690343554869</v>
       </c>
       <c r="L24">
-        <v>0.4493384669092819</v>
+        <v>0.2659605801377012</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.110191952922655</v>
+        <v>2.54952460584882</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.228014101765552</v>
+        <v>1.277375195084232</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.04429830857826289</v>
+        <v>0.1152001269130629</v>
       </c>
       <c r="E25">
-        <v>0.06055786691903631</v>
+        <v>0.160047410206519</v>
       </c>
       <c r="F25">
-        <v>1.331878149720325</v>
+        <v>2.282227045452416</v>
       </c>
       <c r="G25">
-        <v>1.083294735891329</v>
+        <v>1.584360646745665</v>
       </c>
       <c r="H25">
-        <v>0.7103467921418058</v>
+        <v>1.41509039526882</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.09869697701562652</v>
+        <v>0.2379313282830404</v>
       </c>
       <c r="K25">
-        <v>1.812079038847457</v>
+        <v>0.7485917125013657</v>
       </c>
       <c r="L25">
-        <v>0.3682223876661368</v>
+        <v>0.2459800412287052</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.206080711528809</v>
+        <v>2.589086159375437</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_52/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_52/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.241092252849029</v>
+        <v>1.060861955857774</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1150248183383553</v>
+        <v>0.04166309621110642</v>
       </c>
       <c r="E2">
-        <v>0.160876770920483</v>
+        <v>0.06116819355422454</v>
       </c>
       <c r="F2">
-        <v>2.280691098417122</v>
+        <v>1.254887664667024</v>
       </c>
       <c r="G2">
-        <v>1.577955447602093</v>
+        <v>1.005624766893618</v>
       </c>
       <c r="H2">
-        <v>1.419242814550003</v>
+        <v>0.6848285864616059</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2394846864840634</v>
+        <v>0.1014586801700661</v>
       </c>
       <c r="K2">
-        <v>0.6674023364164725</v>
+        <v>1.511774897616647</v>
       </c>
       <c r="L2">
-        <v>0.2316168997267027</v>
+        <v>0.3096025385546994</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2.620626096286461</v>
+        <v>1.282020652654154</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.217650012112159</v>
+        <v>0.9497556449728677</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1149542754931545</v>
+        <v>0.03993371979076343</v>
       </c>
       <c r="E3">
-        <v>0.161498686704741</v>
+        <v>0.06166288280700005</v>
       </c>
       <c r="F3">
-        <v>2.281751497753461</v>
+        <v>1.207154027205277</v>
       </c>
       <c r="G3">
-        <v>1.575296100191409</v>
+        <v>0.9570505187869003</v>
       </c>
       <c r="H3">
-        <v>1.423218395150712</v>
+        <v>0.6698284838794137</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2406192785472721</v>
+        <v>0.1034518763573486</v>
       </c>
       <c r="K3">
-        <v>0.6128881741464056</v>
+        <v>1.310315814382477</v>
       </c>
       <c r="L3">
-        <v>0.2221006041640692</v>
+        <v>0.2704105698560255</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.643506227855685</v>
+        <v>1.336616798644339</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.20382441845797</v>
+        <v>0.8824765446908884</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1149349262874253</v>
+        <v>0.03889777908507597</v>
       </c>
       <c r="E4">
-        <v>0.1619101887677443</v>
+        <v>0.06200568484400204</v>
       </c>
       <c r="F4">
-        <v>2.283439278074553</v>
+        <v>1.179852131074895</v>
       </c>
       <c r="G4">
-        <v>1.574491615809464</v>
+        <v>0.9290401590513966</v>
       </c>
       <c r="H4">
-        <v>1.426232704689625</v>
+        <v>0.6616636542828473</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2413564485771298</v>
+        <v>0.1047350836439906</v>
       </c>
       <c r="K4">
-        <v>0.5796676717363596</v>
+        <v>1.187408378459736</v>
       </c>
       <c r="L4">
-        <v>0.2163652705041841</v>
+        <v>0.2465642941986204</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2.658297508788284</v>
+        <v>1.371622819089907</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.198333720386586</v>
+        <v>0.8552783471482144</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1149330936478918</v>
+        <v>0.03848187702007166</v>
       </c>
       <c r="E5">
-        <v>0.1620853511240394</v>
+        <v>0.06215507359943562</v>
       </c>
       <c r="F5">
-        <v>2.284387863616928</v>
+        <v>1.169205372532467</v>
       </c>
       <c r="G5">
-        <v>1.57437200994157</v>
+        <v>0.9180556663005888</v>
       </c>
       <c r="H5">
-        <v>1.427605309141057</v>
+        <v>0.6585873299167702</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2416670616631214</v>
+        <v>0.10527284463498</v>
       </c>
       <c r="K5">
-        <v>0.5661936418007372</v>
+        <v>1.137490318160388</v>
       </c>
       <c r="L5">
-        <v>0.2140552639017272</v>
+        <v>0.2368952201216956</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.664511859329256</v>
+        <v>1.386252519535169</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.197430666685705</v>
+        <v>0.8507748033170515</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1149331556607471</v>
+        <v>0.03841318716924391</v>
       </c>
       <c r="E6">
-        <v>0.1621148885126571</v>
+        <v>0.06218046140168632</v>
       </c>
       <c r="F6">
-        <v>2.284561130787125</v>
+        <v>1.167465693592931</v>
       </c>
       <c r="G6">
-        <v>1.574364723912751</v>
+        <v>0.9162569271201022</v>
       </c>
       <c r="H6">
-        <v>1.427841944052943</v>
+        <v>0.6580913267517872</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2417192559884689</v>
+        <v>0.1053630334893771</v>
       </c>
       <c r="K6">
-        <v>0.5639601414583524</v>
+        <v>1.129210727837972</v>
       </c>
       <c r="L6">
-        <v>0.2136733342526895</v>
+        <v>0.2352924291295295</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2.66555502891779</v>
+        <v>1.388703539318314</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.203749787919179</v>
+        <v>0.8821088782497952</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1149348770307839</v>
+        <v>0.03889214509987227</v>
       </c>
       <c r="E7">
-        <v>0.1619125207908096</v>
+        <v>0.06200766046477657</v>
       </c>
       <c r="F7">
-        <v>2.283451014904628</v>
+        <v>1.179706638601758</v>
       </c>
       <c r="G7">
-        <v>1.574489159752858</v>
+        <v>0.9288903111389999</v>
       </c>
       <c r="H7">
-        <v>1.42625063193799</v>
+        <v>0.661621165252356</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2413605962457757</v>
+        <v>0.1047422760869847</v>
       </c>
       <c r="K7">
-        <v>0.5794856982665806</v>
+        <v>1.186734526275671</v>
       </c>
       <c r="L7">
-        <v>0.216334006724253</v>
+        <v>0.246433705432068</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2.658380561413885</v>
+        <v>1.371818655706676</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.232891765198389</v>
+        <v>1.022346126603168</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1149955369103957</v>
+        <v>0.04106126642367158</v>
       </c>
       <c r="E8">
-        <v>0.1610850657545324</v>
+        <v>0.06133057569209743</v>
       </c>
       <c r="F8">
-        <v>2.280841623429083</v>
+        <v>1.237996715980387</v>
       </c>
       <c r="G8">
-        <v>1.576866529025338</v>
+        <v>0.9884834736295431</v>
       </c>
       <c r="H8">
-        <v>1.420494661468879</v>
+        <v>0.6794321953038747</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2398674946083839</v>
+        <v>0.1021335570200748</v>
       </c>
       <c r="K8">
-        <v>0.6485538787785288</v>
+        <v>1.442128858585022</v>
       </c>
       <c r="L8">
-        <v>0.2283133844255474</v>
+        <v>0.2960400463471728</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2.628361004115959</v>
+        <v>1.300532104163558</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.294528229009558</v>
+        <v>1.305688920543219</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1153035529592579</v>
+        <v>0.04553361062715666</v>
       </c>
       <c r="E9">
-        <v>0.1596968441071196</v>
+        <v>0.06031896975023265</v>
       </c>
       <c r="F9">
-        <v>2.283947648192608</v>
+        <v>1.369463355585779</v>
       </c>
       <c r="G9">
-        <v>1.588106867952732</v>
+        <v>1.121012314884055</v>
       </c>
       <c r="H9">
-        <v>1.413752960273328</v>
+        <v>0.723230224382533</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2372601726892345</v>
+        <v>0.09749304228504529</v>
       </c>
       <c r="K9">
-        <v>0.7859821657690418</v>
+        <v>1.950724283690136</v>
       </c>
       <c r="L9">
-        <v>0.2526564273957774</v>
+        <v>0.3953529296807119</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>2.575385440001725</v>
+        <v>1.17292331010735</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.342531341851014</v>
+        <v>1.520261923045183</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.11564375505003</v>
+        <v>0.04897330431762015</v>
       </c>
       <c r="E10">
-        <v>0.1588187528059368</v>
+        <v>0.05977787511648547</v>
       </c>
       <c r="F10">
-        <v>2.291242781475347</v>
+        <v>1.478364361063598</v>
       </c>
       <c r="G10">
-        <v>1.600386711131421</v>
+        <v>1.229834089889891</v>
       </c>
       <c r="H10">
-        <v>1.411568397081311</v>
+        <v>0.7616801766570518</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2355387635080586</v>
+        <v>0.09437917679777375</v>
       </c>
       <c r="K10">
-        <v>0.8881600816483797</v>
+        <v>2.331406597220308</v>
       </c>
       <c r="L10">
-        <v>0.2710583259779327</v>
+        <v>0.4700240494622534</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>2.540054075858787</v>
+        <v>1.087203121807839</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.364956183342997</v>
+        <v>1.619584332468207</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1158229771540746</v>
+        <v>0.05057666951212525</v>
       </c>
       <c r="E11">
-        <v>0.1584498591940573</v>
+        <v>0.05957791495467823</v>
       </c>
       <c r="F11">
-        <v>2.295650412534485</v>
+        <v>1.531027212939478</v>
       </c>
       <c r="G11">
-        <v>1.606849047635848</v>
+        <v>1.282287257492243</v>
       </c>
       <c r="H11">
-        <v>1.411175323675479</v>
+        <v>0.7807431750869398</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2347975432223368</v>
+        <v>0.09302817276312503</v>
       </c>
       <c r="K11">
-        <v>0.9349064935367437</v>
+        <v>2.506667139569828</v>
       </c>
       <c r="L11">
-        <v>0.2795418087394665</v>
+        <v>0.5044773575503569</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>2.524759880147045</v>
+        <v>1.050097971456367</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.373532023526764</v>
+        <v>1.657469672203149</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1158943370894576</v>
+        <v>0.05118985085409378</v>
       </c>
       <c r="E12">
-        <v>0.1583145447546581</v>
+        <v>0.05950904983001415</v>
       </c>
       <c r="F12">
-        <v>2.297476035043474</v>
+        <v>1.551458919383606</v>
       </c>
       <c r="G12">
-        <v>1.609422314324348</v>
+        <v>1.302615859683897</v>
       </c>
       <c r="H12">
-        <v>1.411112801820565</v>
+        <v>0.7882069117343917</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2345228612473882</v>
+        <v>0.09252613604593307</v>
       </c>
       <c r="K12">
-        <v>0.9526460603857458</v>
+        <v>2.573383611565362</v>
       </c>
       <c r="L12">
-        <v>0.2827703695230923</v>
+        <v>0.517603842891134</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>2.519080282820127</v>
+        <v>1.036332493447063</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.371681333366752</v>
+        <v>1.649297727590579</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1158788135242119</v>
+        <v>0.05105751550648563</v>
       </c>
       <c r="E13">
-        <v>0.1583434927026364</v>
+        <v>0.05952357265162345</v>
       </c>
       <c r="F13">
-        <v>2.297075892885786</v>
+        <v>1.547036140753946</v>
       </c>
       <c r="G13">
-        <v>1.608862504034562</v>
+        <v>1.298216318612219</v>
       </c>
       <c r="H13">
-        <v>1.411122428448522</v>
+        <v>0.7865882474020793</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2345817522510236</v>
+        <v>0.09263383115743551</v>
       </c>
       <c r="K13">
-        <v>0.948823856471563</v>
+        <v>2.558998671552018</v>
       </c>
       <c r="L13">
-        <v>0.2820743290842671</v>
+        <v>0.5147731031067337</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>2.520298504020353</v>
+        <v>1.03928420952338</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.365660041529679</v>
+        <v>1.622695521046381</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1158287781296821</v>
+        <v>0.05062699277842597</v>
       </c>
       <c r="E14">
-        <v>0.1584386391527381</v>
+        <v>0.05957211069065771</v>
       </c>
       <c r="F14">
-        <v>2.295797470439979</v>
+        <v>1.532698090087507</v>
       </c>
       <c r="G14">
-        <v>1.607058223466737</v>
+        <v>1.283950119368285</v>
       </c>
       <c r="H14">
-        <v>1.41116845015037</v>
+        <v>0.78135219690094</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2347748247779959</v>
+        <v>0.09298667748446565</v>
       </c>
       <c r="K14">
-        <v>0.9363651848844654</v>
+        <v>2.512148650854414</v>
       </c>
       <c r="L14">
-        <v>0.2798071033313079</v>
+        <v>0.5055556223461508</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>2.524290371511142</v>
+        <v>1.04895967394117</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.361982755651866</v>
+        <v>1.606437463241519</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1157985840752502</v>
+        <v>0.0503640840644124</v>
       </c>
       <c r="E15">
-        <v>0.1584974887119541</v>
+        <v>0.05960274110515407</v>
       </c>
       <c r="F15">
-        <v>2.295034785410351</v>
+        <v>1.523980611058192</v>
       </c>
       <c r="G15">
-        <v>1.60596947788099</v>
+        <v>1.275273605140143</v>
       </c>
       <c r="H15">
-        <v>1.411207880491133</v>
+        <v>0.7781774598397533</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2348938684186663</v>
+        <v>0.09320405524841391</v>
       </c>
       <c r="K15">
-        <v>0.9287387881239511</v>
+        <v>2.483498654033696</v>
       </c>
       <c r="L15">
-        <v>0.2784204490688182</v>
+        <v>0.4999203489234816</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>2.526750091368804</v>
+        <v>1.05492377485259</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.341077613672098</v>
+        <v>1.513807756845694</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1156325325479628</v>
+        <v>0.04886933678529459</v>
       </c>
       <c r="E16">
-        <v>0.1588434743239162</v>
+        <v>0.05979189021773657</v>
       </c>
       <c r="F16">
-        <v>2.290976641989246</v>
+        <v>1.474988938568075</v>
       </c>
       <c r="G16">
-        <v>1.599982023963676</v>
+        <v>1.226468981484331</v>
       </c>
       <c r="H16">
-        <v>1.411606168335453</v>
+        <v>0.7604675802638781</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2355880448195471</v>
+        <v>0.09446879794398377</v>
       </c>
       <c r="K16">
-        <v>0.8851103939804545</v>
+        <v>2.319998992586477</v>
       </c>
       <c r="L16">
-        <v>0.2705061622747138</v>
+        <v>0.4677830420988727</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>2.541069253661249</v>
+        <v>1.089667199663033</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.328403218396147</v>
+        <v>1.457440107170953</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.115536912695088</v>
+        <v>0.04796256918607256</v>
       </c>
       <c r="E17">
-        <v>0.1590635395162545</v>
+        <v>0.05991990271088188</v>
       </c>
       <c r="F17">
-        <v>2.288765992231973</v>
+        <v>1.445761730240122</v>
       </c>
       <c r="G17">
-        <v>1.596533414370114</v>
+        <v>1.197312901510514</v>
       </c>
       <c r="H17">
-        <v>1.412004319519241</v>
+        <v>0.7500187444537829</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2360246081091404</v>
+        <v>0.09526155069322861</v>
       </c>
       <c r="K17">
-        <v>0.8584134067600928</v>
+        <v>2.220265230560443</v>
       </c>
       <c r="L17">
-        <v>0.265679706367024</v>
+        <v>0.4481989402768534</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>2.550052969206853</v>
+        <v>1.111474516897346</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.321168615888439</v>
+        <v>1.42517827806688</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1154842187065839</v>
+        <v>0.04744462592501719</v>
       </c>
       <c r="E18">
-        <v>0.1591929920894994</v>
+        <v>0.05999786549798181</v>
       </c>
       <c r="F18">
-        <v>2.287596993507577</v>
+        <v>1.429242386299023</v>
       </c>
       <c r="G18">
-        <v>1.594632327310777</v>
+        <v>1.180818039996723</v>
       </c>
       <c r="H18">
-        <v>1.412289868882283</v>
+        <v>0.7441555826345478</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2362796485890124</v>
+        <v>0.09572367819329486</v>
       </c>
       <c r="K18">
-        <v>0.8430829892155884</v>
+        <v>2.163094198044746</v>
       </c>
       <c r="L18">
-        <v>0.2629142395257276</v>
+        <v>0.4369796892282096</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>2.555293409654027</v>
+        <v>1.12419446101778</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.318728630025106</v>
+        <v>1.414281531113915</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1154667739170954</v>
+        <v>0.04726986503901642</v>
       </c>
       <c r="E19">
-        <v>0.1592373171093699</v>
+        <v>0.06002500041607206</v>
       </c>
       <c r="F19">
-        <v>2.287218798252454</v>
+        <v>1.423698088664665</v>
       </c>
       <c r="G19">
-        <v>1.594002810966018</v>
+        <v>1.175279173920913</v>
       </c>
       <c r="H19">
-        <v>1.412396263999241</v>
+        <v>0.7421950661332914</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2363666782726739</v>
+        <v>0.09588120004363709</v>
       </c>
       <c r="K19">
-        <v>0.8378966768391933</v>
+        <v>2.143768820115099</v>
       </c>
       <c r="L19">
-        <v>0.2619797209043355</v>
+        <v>0.4331884819005722</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>2.55708031038677</v>
+        <v>1.128531206420838</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.329746702078069</v>
+        <v>1.463423852201771</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1155468533182358</v>
+        <v>0.04805871976451215</v>
       </c>
       <c r="E20">
-        <v>0.1590398155706625</v>
+        <v>0.05990582558560931</v>
       </c>
       <c r="F20">
-        <v>2.28899071081527</v>
+        <v>1.448842578877986</v>
       </c>
       <c r="G20">
-        <v>1.596891989322359</v>
+        <v>1.20038787003476</v>
       </c>
       <c r="H20">
-        <v>1.411956084005652</v>
+        <v>0.7511157223643465</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2359777274651504</v>
+        <v>0.09517652260115828</v>
       </c>
       <c r="K20">
-        <v>0.8612527639496932</v>
+        <v>2.230861722900528</v>
       </c>
       <c r="L20">
-        <v>0.2661923963291741</v>
+        <v>0.4502789734877695</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>2.549089056236944</v>
+        <v>1.109134680871591</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.367426364170313</v>
+        <v>1.630501561533862</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1158433801550487</v>
+        <v>0.05075328034916282</v>
       </c>
       <c r="E21">
-        <v>0.158410573656127</v>
+        <v>0.05955766603460955</v>
       </c>
       <c r="F21">
-        <v>2.29616872584819</v>
+        <v>1.536895902374155</v>
       </c>
       <c r="G21">
-        <v>1.607584760521348</v>
+        <v>1.28812745949719</v>
       </c>
       <c r="H21">
-        <v>1.411152589996817</v>
+        <v>0.7828833438134382</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2347179519368767</v>
+        <v>0.09288277736934347</v>
       </c>
       <c r="K21">
-        <v>0.9400235784574704</v>
+        <v>2.525899750492897</v>
       </c>
       <c r="L21">
-        <v>0.2804726077622917</v>
+        <v>0.5082607709732088</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>2.523114823465505</v>
+        <v>1.046109893650133</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.392541810716153</v>
+        <v>1.741308749557788</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1160575224798492</v>
+        <v>0.05254968353139589</v>
       </c>
       <c r="E22">
-        <v>0.1580248360861694</v>
+        <v>0.05937019627758744</v>
       </c>
       <c r="F22">
-        <v>2.301772433015387</v>
+        <v>1.597317764665021</v>
       </c>
       <c r="G22">
-        <v>1.615308289093008</v>
+        <v>1.348206836495791</v>
       </c>
       <c r="H22">
-        <v>1.411130613782859</v>
+        <v>0.8050833046660841</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2339295926267351</v>
+        <v>0.09143947307391276</v>
       </c>
       <c r="K22">
-        <v>0.9917245003211406</v>
+        <v>2.72078493791571</v>
       </c>
       <c r="L22">
-        <v>0.289899053056871</v>
+        <v>0.5466254426240766</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>2.506791919227148</v>
+        <v>1.006590512086348</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.379092593811777</v>
+        <v>1.682011536204726</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1159413774189488</v>
+        <v>0.0515875074143608</v>
       </c>
       <c r="E23">
-        <v>0.1582283827675104</v>
+        <v>0.05946650984887114</v>
       </c>
       <c r="F23">
-        <v>2.298698156355712</v>
+        <v>1.564792309611548</v>
       </c>
       <c r="G23">
-        <v>1.611118784726642</v>
+        <v>1.315876286430949</v>
       </c>
       <c r="H23">
-        <v>1.411096321362862</v>
+        <v>0.7930965039813884</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2343471600185838</v>
+        <v>0.09220463804440726</v>
       </c>
       <c r="K23">
-        <v>0.9641107851060156</v>
+        <v>2.616565133521448</v>
       </c>
       <c r="L23">
-        <v>0.2848594620488285</v>
+        <v>0.5261029326543536</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>2.515444007020285</v>
+        <v>1.027525014233909</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.329139150853223</v>
+        <v>1.460718152499254</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1155423520626009</v>
+        <v>0.04801523962722243</v>
       </c>
       <c r="E24">
-        <v>0.1590505320262929</v>
+        <v>0.05991217626857015</v>
       </c>
       <c r="F24">
-        <v>2.288888798016899</v>
+        <v>1.447448846344159</v>
       </c>
       <c r="G24">
-        <v>1.596729623522648</v>
+        <v>1.198996847108333</v>
       </c>
       <c r="H24">
-        <v>1.41197771481832</v>
+        <v>0.7506193314961536</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2359989095744783</v>
+        <v>0.09521494399152175</v>
       </c>
       <c r="K24">
-        <v>0.8599690343554869</v>
+        <v>2.226070531472459</v>
       </c>
       <c r="L24">
-        <v>0.2659605801377012</v>
+        <v>0.4493384669093388</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>2.54952460584882</v>
+        <v>1.110191952922648</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.277375195084232</v>
+        <v>1.228014101765524</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1152001269130629</v>
+        <v>0.04429830857825934</v>
       </c>
       <c r="E25">
-        <v>0.160047410206519</v>
+        <v>0.06055786691903453</v>
       </c>
       <c r="F25">
-        <v>2.282227045452416</v>
+        <v>1.331878149720325</v>
       </c>
       <c r="G25">
-        <v>1.584360646745665</v>
+        <v>1.083294735891343</v>
       </c>
       <c r="H25">
-        <v>1.41509039526882</v>
+        <v>0.7103467921419195</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2379313282830404</v>
+        <v>0.09869697701570246</v>
       </c>
       <c r="K25">
-        <v>0.7485917125013657</v>
+        <v>1.812079038847372</v>
       </c>
       <c r="L25">
-        <v>0.2459800412287052</v>
+        <v>0.3682223876661652</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>2.589086159375437</v>
+        <v>1.206080711528784</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_52/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_52/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.060861955857774</v>
+        <v>1.055562019153768</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.04166309621110642</v>
+        <v>0.1293531990552594</v>
       </c>
       <c r="E2">
-        <v>0.06116819355422454</v>
+        <v>0.1166666022319234</v>
       </c>
       <c r="F2">
-        <v>1.254887664667024</v>
+        <v>2.099004734830189</v>
       </c>
       <c r="G2">
-        <v>1.005624766893618</v>
+        <v>2.299383213065312</v>
       </c>
       <c r="H2">
-        <v>0.6848285864616059</v>
+        <v>0.01433116296646703</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.01035840604424454</v>
       </c>
       <c r="J2">
-        <v>0.1014586801700661</v>
+        <v>1.218247612858761</v>
       </c>
       <c r="K2">
-        <v>1.511774897616647</v>
+        <v>1.947772075645659</v>
       </c>
       <c r="L2">
-        <v>0.3096025385546994</v>
+        <v>0.1350374913139092</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.282020652654154</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>5.872105289514337</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9497556449728677</v>
+        <v>0.9186875919957913</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.03993371979076343</v>
+        <v>0.1168157581320841</v>
       </c>
       <c r="E3">
-        <v>0.06166288280700005</v>
+        <v>0.1068306651379096</v>
       </c>
       <c r="F3">
-        <v>1.207154027205277</v>
+        <v>1.865175428211614</v>
       </c>
       <c r="G3">
-        <v>0.9570505187869003</v>
+        <v>2.010996507217527</v>
       </c>
       <c r="H3">
-        <v>0.6698284838794137</v>
+        <v>0.007955819767303501</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.01226841567884751</v>
       </c>
       <c r="J3">
-        <v>0.1034518763573486</v>
+        <v>1.088321772288396</v>
       </c>
       <c r="K3">
-        <v>1.310315814382477</v>
+        <v>1.734063683683232</v>
       </c>
       <c r="L3">
-        <v>0.2704105698560255</v>
+        <v>0.1247587109422383</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.336616798644339</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>5.118983660178486</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8824765446908884</v>
+        <v>0.8343252918856194</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.03889777908507597</v>
+        <v>0.1092019087072345</v>
       </c>
       <c r="E4">
-        <v>0.06200568484400204</v>
+        <v>0.100797696945655</v>
       </c>
       <c r="F4">
-        <v>1.179852131074895</v>
+        <v>1.72524388108998</v>
       </c>
       <c r="G4">
-        <v>0.9290401590513966</v>
+        <v>1.837993782571687</v>
       </c>
       <c r="H4">
-        <v>0.6616636542828473</v>
+        <v>0.004911736953200463</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.01357108608306135</v>
       </c>
       <c r="J4">
-        <v>0.1047350836439906</v>
+        <v>1.010682103858869</v>
       </c>
       <c r="K4">
-        <v>1.187408378459736</v>
+        <v>1.606040351975111</v>
       </c>
       <c r="L4">
-        <v>0.2465642941986204</v>
+        <v>0.1184038667056804</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.371622819089907</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>4.659014615150483</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8552783471482144</v>
+        <v>0.7990364502202851</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.03848187702007166</v>
+        <v>0.1061455976207455</v>
       </c>
       <c r="E5">
-        <v>0.06215507359943562</v>
+        <v>0.09839467465398855</v>
       </c>
       <c r="F5">
-        <v>1.169205372532467</v>
+        <v>1.667941972051523</v>
       </c>
       <c r="G5">
-        <v>0.9180556663005888</v>
+        <v>1.767373706616951</v>
       </c>
       <c r="H5">
-        <v>0.6585873299167702</v>
+        <v>0.003872068599269252</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.01421368803321288</v>
       </c>
       <c r="J5">
-        <v>0.10527284463498</v>
+        <v>0.9789954068697853</v>
       </c>
       <c r="K5">
-        <v>1.137490318160388</v>
+        <v>1.559872623116576</v>
       </c>
       <c r="L5">
-        <v>0.2368952201216956</v>
+        <v>0.115880196024861</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.386252519535169</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>4.477964694723241</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8507748033170515</v>
+        <v>0.7921665792804049</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.03841318716924391</v>
+        <v>0.1056765512241356</v>
       </c>
       <c r="E6">
-        <v>0.06218046140168632</v>
+        <v>0.09806528836561412</v>
       </c>
       <c r="F6">
-        <v>1.167465693592931</v>
+        <v>1.657151609410093</v>
       </c>
       <c r="G6">
-        <v>0.9162569271201022</v>
+        <v>1.754464668949367</v>
       </c>
       <c r="H6">
-        <v>0.6580913267517872</v>
+        <v>0.003715299822989904</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.01442855761313044</v>
       </c>
       <c r="J6">
-        <v>0.1053630334893771</v>
+        <v>0.9731236316875709</v>
       </c>
       <c r="K6">
-        <v>1.129210727837972</v>
+        <v>1.558696329520728</v>
       </c>
       <c r="L6">
-        <v>0.2352924291295295</v>
+        <v>0.1155576474862627</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.388703539318314</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>4.45511108760644</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8821088782497952</v>
+        <v>0.8311012038761589</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03889214509987227</v>
+        <v>0.109263566836276</v>
       </c>
       <c r="E7">
-        <v>0.06200766046477657</v>
+        <v>0.1009552816391377</v>
       </c>
       <c r="F7">
-        <v>1.179706638601758</v>
+        <v>1.720867481357104</v>
       </c>
       <c r="G7">
-        <v>0.9288903111389999</v>
+        <v>1.833677081603867</v>
       </c>
       <c r="H7">
-        <v>0.661621165252356</v>
+        <v>0.004911760078273431</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.0138540183896998</v>
       </c>
       <c r="J7">
-        <v>0.1047422760869847</v>
+        <v>1.008516985017991</v>
       </c>
       <c r="K7">
-        <v>1.186734526275671</v>
+        <v>1.623081046888061</v>
       </c>
       <c r="L7">
-        <v>0.246433705432068</v>
+        <v>0.1186338932491431</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.371818655706676</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>4.676214089897854</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.022346126603168</v>
+        <v>1.004777335838611</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.04106126642367158</v>
+        <v>0.1251455584624992</v>
       </c>
       <c r="E8">
-        <v>0.06133057569209743</v>
+        <v>0.1135202610714572</v>
       </c>
       <c r="F8">
-        <v>1.237996715980387</v>
+        <v>2.012822300935042</v>
       </c>
       <c r="G8">
-        <v>0.9884834736295431</v>
+        <v>2.194600309689832</v>
       </c>
       <c r="H8">
-        <v>0.6794321953038747</v>
+        <v>0.01197006591644306</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.01131896754617312</v>
       </c>
       <c r="J8">
-        <v>0.1021335570200748</v>
+        <v>1.17068812594195</v>
       </c>
       <c r="K8">
-        <v>1.442128858585022</v>
+        <v>1.897131022397858</v>
       </c>
       <c r="L8">
-        <v>0.2960400463471728</v>
+        <v>0.1318422671992785</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.300532104163558</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>5.638041034571387</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.305688920543219</v>
+        <v>1.34822618996651</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.04553361062715666</v>
+        <v>0.1570559379701493</v>
       </c>
       <c r="E9">
-        <v>0.06031896975023265</v>
+        <v>0.1380309395851178</v>
       </c>
       <c r="F9">
-        <v>1.369463355585779</v>
+        <v>2.626333093677914</v>
       </c>
       <c r="G9">
-        <v>1.121012314884055</v>
+        <v>2.947384580974557</v>
       </c>
       <c r="H9">
-        <v>0.723230224382533</v>
+        <v>0.03374799535684847</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.007060243355338613</v>
       </c>
       <c r="J9">
-        <v>0.09749304228504529</v>
+        <v>1.511927103074754</v>
       </c>
       <c r="K9">
-        <v>1.950724283690136</v>
+        <v>2.430068840202736</v>
       </c>
       <c r="L9">
-        <v>0.3953529296807119</v>
+        <v>0.1570563218250527</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.17292331010735</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>7.512409242545317</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.520261923045183</v>
+        <v>1.605281223497855</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.04897330431762015</v>
+        <v>0.183496832994436</v>
       </c>
       <c r="E10">
-        <v>0.05977787511648547</v>
+        <v>0.160308008362346</v>
       </c>
       <c r="F10">
-        <v>1.478364361063598</v>
+        <v>3.057917200749159</v>
       </c>
       <c r="G10">
-        <v>1.229834089889891</v>
+        <v>3.48710703148663</v>
       </c>
       <c r="H10">
-        <v>0.7616801766570518</v>
+        <v>0.05553945228956358</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.004911697360965306</v>
       </c>
       <c r="J10">
-        <v>0.09437917679777375</v>
+        <v>1.756351203032779</v>
       </c>
       <c r="K10">
-        <v>2.331406597220308</v>
+        <v>2.873304676874255</v>
       </c>
       <c r="L10">
-        <v>0.4700240494622534</v>
+        <v>0.1813325016025047</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.087203121807839</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>8.870993376378721</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.619584332468207</v>
+        <v>1.777034279553874</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.05057666951212525</v>
+        <v>0.2141196857939605</v>
       </c>
       <c r="E11">
-        <v>0.05957791495467823</v>
+        <v>0.2110619373758738</v>
       </c>
       <c r="F11">
-        <v>1.531027212939478</v>
+        <v>2.850327482315038</v>
       </c>
       <c r="G11">
-        <v>1.282287257492243</v>
+        <v>3.339627498361637</v>
       </c>
       <c r="H11">
-        <v>0.7807431750869398</v>
+        <v>0.07797176149932028</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.004617746639897113</v>
       </c>
       <c r="J11">
-        <v>0.09302817276312503</v>
+        <v>1.673405593170571</v>
       </c>
       <c r="K11">
-        <v>2.506667139569828</v>
+        <v>3.311054463241234</v>
       </c>
       <c r="L11">
-        <v>0.5044773575503569</v>
+        <v>0.2569907509055938</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.050097971456367</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>9.091053038882194</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.657469672203149</v>
+        <v>1.875008657004571</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.05118985085409378</v>
+        <v>0.236081496278814</v>
       </c>
       <c r="E12">
-        <v>0.05950904983001415</v>
+        <v>0.2584566075351447</v>
       </c>
       <c r="F12">
-        <v>1.551458919383606</v>
+        <v>2.59477060793597</v>
       </c>
       <c r="G12">
-        <v>1.302615859683897</v>
+        <v>3.108310163743653</v>
       </c>
       <c r="H12">
-        <v>0.7882069117343917</v>
+        <v>0.1158473419772434</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.004322178818579658</v>
       </c>
       <c r="J12">
-        <v>0.09252613604593307</v>
+        <v>1.554997049089366</v>
       </c>
       <c r="K12">
-        <v>2.573383611565362</v>
+        <v>3.566224069851188</v>
       </c>
       <c r="L12">
-        <v>0.517603842891134</v>
+        <v>0.3364288912555935</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.036332493447063</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>8.94900159368234</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.649297727590579</v>
+        <v>1.916401612566091</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.05105751550648563</v>
+        <v>0.2524176732849526</v>
       </c>
       <c r="E13">
-        <v>0.05952357265162345</v>
+        <v>0.3056247454214898</v>
       </c>
       <c r="F13">
-        <v>1.547036140753946</v>
+        <v>2.283944863248834</v>
       </c>
       <c r="G13">
-        <v>1.298216318612219</v>
+        <v>2.795429621005042</v>
       </c>
       <c r="H13">
-        <v>0.7865882474020793</v>
+        <v>0.1671427493964615</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.004347971220004077</v>
       </c>
       <c r="J13">
-        <v>0.09263383115743551</v>
+        <v>1.400458318661151</v>
       </c>
       <c r="K13">
-        <v>2.558998671552018</v>
+        <v>3.720809580079617</v>
       </c>
       <c r="L13">
-        <v>0.5147731031067337</v>
+        <v>0.4227329183472648</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.03928420952338</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>8.553670710279619</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.622695521046381</v>
+        <v>1.918759883466066</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.05062699277842597</v>
+        <v>0.2614483647415113</v>
       </c>
       <c r="E14">
-        <v>0.05957211069065771</v>
+        <v>0.3394779946722792</v>
       </c>
       <c r="F14">
-        <v>1.532698090087507</v>
+        <v>2.044835607917776</v>
       </c>
       <c r="G14">
-        <v>1.283950119368285</v>
+        <v>2.542733678604264</v>
       </c>
       <c r="H14">
-        <v>0.78135219690094</v>
+        <v>0.2120138674869736</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.00459443747259769</v>
       </c>
       <c r="J14">
-        <v>0.09298667748446565</v>
+        <v>1.277409529659053</v>
       </c>
       <c r="K14">
-        <v>2.512148650854414</v>
+        <v>3.789718326334395</v>
       </c>
       <c r="L14">
-        <v>0.5055556223461508</v>
+        <v>0.488465512796509</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.04895967394117</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>8.170727041481143</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.606437463241519</v>
+        <v>1.9055270293033</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.0503640840644124</v>
+        <v>0.2622192712632057</v>
       </c>
       <c r="E15">
-        <v>0.05960274110515407</v>
+        <v>0.3464982415751123</v>
       </c>
       <c r="F15">
-        <v>1.523980611058192</v>
+        <v>1.973695373153291</v>
       </c>
       <c r="G15">
-        <v>1.275273605140143</v>
+        <v>2.463148410110392</v>
       </c>
       <c r="H15">
-        <v>0.7781774598397533</v>
+        <v>0.2225879909080817</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.004847184824109618</v>
       </c>
       <c r="J15">
-        <v>0.09320405524841391</v>
+        <v>1.239428182114494</v>
       </c>
       <c r="K15">
-        <v>2.483498654033696</v>
+        <v>3.79201494539916</v>
       </c>
       <c r="L15">
-        <v>0.4999203489234816</v>
+        <v>0.5033386740385168</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.05492377485259</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>8.033112961289135</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.513807756845694</v>
+        <v>1.782045760369243</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.04886933678529459</v>
+        <v>0.2465925479882145</v>
       </c>
       <c r="E16">
-        <v>0.05979189021773657</v>
+        <v>0.3257674665683368</v>
       </c>
       <c r="F16">
-        <v>1.474988938568075</v>
+        <v>1.856924276680203</v>
       </c>
       <c r="G16">
-        <v>1.226468981484331</v>
+        <v>2.299362769787564</v>
       </c>
       <c r="H16">
-        <v>0.7604675802638781</v>
+        <v>0.2010670602073219</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.005780908994447387</v>
       </c>
       <c r="J16">
-        <v>0.09446879794398377</v>
+        <v>1.167727540844453</v>
       </c>
       <c r="K16">
-        <v>2.319998992586477</v>
+        <v>3.571027886511786</v>
       </c>
       <c r="L16">
-        <v>0.4677830420988727</v>
+        <v>0.4730380553187672</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.089667199663033</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>7.552328013099071</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.457440107170953</v>
+        <v>1.686453080150585</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.04796256918607256</v>
+        <v>0.2298721739273475</v>
       </c>
       <c r="E17">
-        <v>0.05991990271088188</v>
+        <v>0.2914495050052466</v>
       </c>
       <c r="F17">
-        <v>1.445761730240122</v>
+        <v>1.892209776230814</v>
       </c>
       <c r="G17">
-        <v>1.197312901510514</v>
+        <v>2.306334488966968</v>
       </c>
       <c r="H17">
-        <v>0.7500187444537829</v>
+        <v>0.1590372215951845</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.006422673530605216</v>
       </c>
       <c r="J17">
-        <v>0.09526155069322861</v>
+        <v>1.17738034104238</v>
       </c>
       <c r="K17">
-        <v>2.220265230560443</v>
+        <v>3.367108534417866</v>
       </c>
       <c r="L17">
-        <v>0.4481989402768534</v>
+        <v>0.4136524622613251</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.111474516897346</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>7.386670837218617</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.42517827806688</v>
+        <v>1.607287609455085</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.04744462592501719</v>
+        <v>0.2108975851195964</v>
       </c>
       <c r="E18">
-        <v>0.05999786549798181</v>
+        <v>0.2454045538543923</v>
       </c>
       <c r="F18">
-        <v>1.429242386299023</v>
+        <v>2.068151214304692</v>
       </c>
       <c r="G18">
-        <v>1.180818039996723</v>
+        <v>2.464876649313965</v>
       </c>
       <c r="H18">
-        <v>0.7441555826345478</v>
+        <v>0.1053626860561891</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.006541408090295242</v>
       </c>
       <c r="J18">
-        <v>0.09572367819329486</v>
+        <v>1.259912663098675</v>
       </c>
       <c r="K18">
-        <v>2.163094198044746</v>
+        <v>3.139753757028174</v>
       </c>
       <c r="L18">
-        <v>0.4369796892282096</v>
+        <v>0.3313349709240896</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.12419446101778</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>7.453823600943224</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.414281531113915</v>
+        <v>1.542607549469722</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.04726986503901642</v>
+        <v>0.1928415370171166</v>
       </c>
       <c r="E19">
-        <v>0.06002500041607206</v>
+        <v>0.2001481102595157</v>
       </c>
       <c r="F19">
-        <v>1.423698088664665</v>
+        <v>2.348651775643049</v>
       </c>
       <c r="G19">
-        <v>1.175279173920913</v>
+        <v>2.736078644613656</v>
       </c>
       <c r="H19">
-        <v>0.7421950661332914</v>
+        <v>0.06275290953404777</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.006769834740889991</v>
       </c>
       <c r="J19">
-        <v>0.09588120004363709</v>
+        <v>1.395727610564279</v>
       </c>
       <c r="K19">
-        <v>2.143768820115099</v>
+        <v>2.954045435290809</v>
       </c>
       <c r="L19">
-        <v>0.4331884819005722</v>
+        <v>0.2517746188012282</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.128531206420838</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>7.740009947046588</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.463423852201771</v>
+        <v>1.529408030423951</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.04805871976451215</v>
+        <v>0.1768500992462592</v>
       </c>
       <c r="E20">
-        <v>0.05990582558560931</v>
+        <v>0.1551406831735065</v>
       </c>
       <c r="F20">
-        <v>1.448842578877986</v>
+        <v>2.92948151517524</v>
       </c>
       <c r="G20">
-        <v>1.20038787003476</v>
+        <v>3.330668738035513</v>
       </c>
       <c r="H20">
-        <v>0.7511157223643465</v>
+        <v>0.04942166100280598</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.006245892971673328</v>
       </c>
       <c r="J20">
-        <v>0.09517652260115828</v>
+        <v>1.684682807622892</v>
       </c>
       <c r="K20">
-        <v>2.230861722900528</v>
+        <v>2.814897618761975</v>
       </c>
       <c r="L20">
-        <v>0.4502789734877695</v>
+        <v>0.1759492258875852</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.109134680871591</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>8.573470852688359</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.630501561533862</v>
+        <v>1.718470965040041</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.05075328034916282</v>
+        <v>0.1946062968337685</v>
       </c>
       <c r="E21">
-        <v>0.05955766603460955</v>
+        <v>0.1664335581666272</v>
       </c>
       <c r="F21">
-        <v>1.536895902374155</v>
+        <v>3.34876282426842</v>
       </c>
       <c r="G21">
-        <v>1.28812745949719</v>
+        <v>3.832701679412452</v>
       </c>
       <c r="H21">
-        <v>0.7828833438134382</v>
+        <v>0.06997651867206756</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.00471761207798771</v>
       </c>
       <c r="J21">
-        <v>0.09288277736934347</v>
+        <v>1.915673275434813</v>
       </c>
       <c r="K21">
-        <v>2.525899750492897</v>
+        <v>3.116877501606268</v>
       </c>
       <c r="L21">
-        <v>0.5082607709732088</v>
+        <v>0.1858350332795169</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.046109893650133</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>9.687957884377198</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.741308749557788</v>
+        <v>1.849112584316003</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.05254968353139589</v>
+        <v>0.2074257472302463</v>
       </c>
       <c r="E22">
-        <v>0.05937019627758744</v>
+        <v>0.1757146278875013</v>
       </c>
       <c r="F22">
-        <v>1.597317764665021</v>
+        <v>3.612028619897984</v>
       </c>
       <c r="G22">
-        <v>1.348206836495791</v>
+        <v>4.151855155824734</v>
       </c>
       <c r="H22">
-        <v>0.8050833046660841</v>
+        <v>0.08474442377565339</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.0035926806444877</v>
       </c>
       <c r="J22">
-        <v>0.09143947307391276</v>
+        <v>2.062284149133916</v>
       </c>
       <c r="K22">
-        <v>2.72078493791571</v>
+        <v>3.305801660826504</v>
       </c>
       <c r="L22">
-        <v>0.5466254426240766</v>
+        <v>0.1949757098900307</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.006590512086348</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>10.37120508776715</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.682011536204726</v>
+        <v>1.782605095146437</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.0515875074143608</v>
+        <v>0.2004284493488342</v>
       </c>
       <c r="E23">
-        <v>0.05946650984887114</v>
+        <v>0.1705402431700911</v>
       </c>
       <c r="F23">
-        <v>1.564792309611548</v>
+        <v>3.474702251399236</v>
       </c>
       <c r="G23">
-        <v>1.315876286430949</v>
+        <v>3.984278479190095</v>
       </c>
       <c r="H23">
-        <v>0.7930965039813884</v>
+        <v>0.07660467612960975</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.00385567625456229</v>
       </c>
       <c r="J23">
-        <v>0.09220463804440726</v>
+        <v>1.985478229382096</v>
       </c>
       <c r="K23">
-        <v>2.616565133521448</v>
+        <v>3.182072939100649</v>
       </c>
       <c r="L23">
-        <v>0.5261029326543536</v>
+        <v>0.1898209811417928</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.027525014233909</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>9.98202785626799</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.460718152499254</v>
+        <v>1.526146693005529</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.04801523962722243</v>
+        <v>0.1748706917687883</v>
       </c>
       <c r="E24">
-        <v>0.05991217626857015</v>
+        <v>0.1516180692418096</v>
       </c>
       <c r="F24">
-        <v>1.447448846344159</v>
+        <v>2.966367498520924</v>
       </c>
       <c r="G24">
-        <v>1.198996847108333</v>
+        <v>3.364755598713174</v>
       </c>
       <c r="H24">
-        <v>0.7506193314961536</v>
+        <v>0.04961672219529589</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.005749745297596753</v>
       </c>
       <c r="J24">
-        <v>0.09521494399152175</v>
+        <v>1.701895246154123</v>
       </c>
       <c r="K24">
-        <v>2.226070531472459</v>
+        <v>2.758480719164439</v>
       </c>
       <c r="L24">
-        <v>0.4493384669093388</v>
+        <v>0.1709105203598398</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.110191952922648</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>8.557834530178553</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.228014101765524</v>
+        <v>1.250467343600832</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.04429830857825934</v>
+        <v>0.1484632790157505</v>
       </c>
       <c r="E25">
-        <v>0.06055786691903453</v>
+        <v>0.1316853824084667</v>
       </c>
       <c r="F25">
-        <v>1.331878149720325</v>
+        <v>2.449411433376696</v>
       </c>
       <c r="G25">
-        <v>1.083294735891343</v>
+        <v>2.732571973345529</v>
       </c>
       <c r="H25">
-        <v>0.7103467921419195</v>
+        <v>0.02690922963073472</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.008539532981184372</v>
       </c>
       <c r="J25">
-        <v>0.09869697701570246</v>
+        <v>1.413904127557544</v>
       </c>
       <c r="K25">
-        <v>1.812079038847372</v>
+        <v>2.315793590179496</v>
       </c>
       <c r="L25">
-        <v>0.3682223876661652</v>
+        <v>0.1506900198684704</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.206080711528784</v>
+        <v>0</v>
       </c>
       <c r="O25">
+        <v>7.038292120197326</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_52/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_52/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.055562019153768</v>
+        <v>1.254858710374776</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1293531990552594</v>
+        <v>0.1131329727259214</v>
       </c>
       <c r="E2">
-        <v>0.1166666022319234</v>
+        <v>0.09877186088970014</v>
       </c>
       <c r="F2">
-        <v>2.099004734830189</v>
+        <v>2.351134824957398</v>
       </c>
       <c r="G2">
-        <v>2.299383213065312</v>
+        <v>2.507239331619814</v>
       </c>
       <c r="H2">
-        <v>0.01433116296646703</v>
+        <v>0.01088021447561055</v>
       </c>
       <c r="I2">
-        <v>0.01035840604424454</v>
+        <v>0.006462858202674227</v>
       </c>
       <c r="J2">
-        <v>1.218247612858761</v>
+        <v>1.410915146612297</v>
       </c>
       <c r="K2">
-        <v>1.947772075645659</v>
+        <v>0.9387086456211193</v>
       </c>
       <c r="L2">
-        <v>0.1350374913139092</v>
+        <v>0.3199808782625553</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.3857506700554438</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.1155414338607166</v>
       </c>
       <c r="O2">
-        <v>5.872105289514337</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>4.620170095274318</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9186875919957913</v>
+        <v>1.097141686880946</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1168157581320841</v>
+        <v>0.1026828480975652</v>
       </c>
       <c r="E3">
-        <v>0.1068306651379096</v>
+        <v>0.09095687303575417</v>
       </c>
       <c r="F3">
-        <v>1.865175428211614</v>
+        <v>2.094858276326178</v>
       </c>
       <c r="G3">
-        <v>2.010996507217527</v>
+        <v>2.196074060894915</v>
       </c>
       <c r="H3">
-        <v>0.007955819767303501</v>
+        <v>0.005771865626261086</v>
       </c>
       <c r="I3">
-        <v>0.01226841567884751</v>
+        <v>0.007585037310458898</v>
       </c>
       <c r="J3">
-        <v>1.088321772288396</v>
+        <v>1.268249034091383</v>
       </c>
       <c r="K3">
-        <v>1.734063683683232</v>
+        <v>0.8406657854964834</v>
       </c>
       <c r="L3">
-        <v>0.1247587109422383</v>
+        <v>0.2744050240256826</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.3597931163233596</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.1072589634935177</v>
       </c>
       <c r="O3">
-        <v>5.118983660178486</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>4.008350693596654</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8343252918856194</v>
+        <v>0.9998092074092426</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1092019087072345</v>
+        <v>0.09632817486434675</v>
       </c>
       <c r="E4">
-        <v>0.100797696945655</v>
+        <v>0.08617187142067273</v>
       </c>
       <c r="F4">
-        <v>1.72524388108998</v>
+        <v>1.940432272048469</v>
       </c>
       <c r="G4">
-        <v>1.837993782571687</v>
+        <v>2.008999287193973</v>
       </c>
       <c r="H4">
-        <v>0.004911736953200463</v>
+        <v>0.003386430168710985</v>
       </c>
       <c r="I4">
-        <v>0.01357108608306135</v>
+        <v>0.008369304613995876</v>
       </c>
       <c r="J4">
-        <v>1.010682103858869</v>
+        <v>1.181656784390668</v>
       </c>
       <c r="K4">
-        <v>1.606040351975111</v>
+        <v>0.7826173165716952</v>
       </c>
       <c r="L4">
-        <v>0.1184038667056804</v>
+        <v>0.2481222316236043</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.3442744749519164</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.1021579216986481</v>
       </c>
       <c r="O4">
-        <v>4.659014615150483</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>3.634892342121134</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7990364502202851</v>
+        <v>0.9593456877626068</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1061455976207455</v>
+        <v>0.09377075459647699</v>
       </c>
       <c r="E5">
-        <v>0.09839467465398855</v>
+        <v>0.08424778129628407</v>
       </c>
       <c r="F5">
-        <v>1.667941972051523</v>
+        <v>1.877295758453556</v>
       </c>
       <c r="G5">
-        <v>1.767373706616951</v>
+        <v>1.932851499836886</v>
       </c>
       <c r="H5">
-        <v>0.003872068599269252</v>
+        <v>0.002587073010471119</v>
       </c>
       <c r="I5">
-        <v>0.01421368803321288</v>
+        <v>0.008806090956435142</v>
       </c>
       <c r="J5">
-        <v>0.9789954068697853</v>
+        <v>1.146174225183842</v>
       </c>
       <c r="K5">
-        <v>1.559872623116576</v>
+        <v>0.7619106621450982</v>
       </c>
       <c r="L5">
-        <v>0.115880196024861</v>
+        <v>0.2385598587698041</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.339134483466367</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.1000907232468933</v>
       </c>
       <c r="O5">
-        <v>4.477964694723241</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>3.487009840284628</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7921665792804049</v>
+        <v>0.9518009375281622</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1056765512241356</v>
+        <v>0.09337205784067493</v>
       </c>
       <c r="E6">
-        <v>0.09806528836561412</v>
+        <v>0.08395929497196875</v>
       </c>
       <c r="F6">
-        <v>1.657151609410093</v>
+        <v>1.865813699150024</v>
       </c>
       <c r="G6">
-        <v>1.754464668949367</v>
+        <v>1.919299969729281</v>
       </c>
       <c r="H6">
-        <v>0.003715299822989904</v>
+        <v>0.002466242060199075</v>
       </c>
       <c r="I6">
-        <v>0.01442855761313044</v>
+        <v>0.00900426559366263</v>
       </c>
       <c r="J6">
-        <v>0.9731236316875709</v>
+        <v>1.139792575889544</v>
       </c>
       <c r="K6">
-        <v>1.558696329520728</v>
+        <v>0.7614864193057187</v>
       </c>
       <c r="L6">
-        <v>0.1155576474862627</v>
+        <v>0.237892534765102</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.3396199075071706</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.09976976653688041</v>
       </c>
       <c r="O6">
-        <v>4.45511108760644</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>3.467146602184954</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8311012038761589</v>
+        <v>0.9976171197118902</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.109263566836276</v>
+        <v>0.09606352338280288</v>
       </c>
       <c r="E7">
-        <v>0.1009552816391377</v>
+        <v>0.08611233093704307</v>
       </c>
       <c r="F7">
-        <v>1.720867481357104</v>
+        <v>1.93161112855276</v>
       </c>
       <c r="G7">
-        <v>1.833677081603867</v>
+        <v>2.009978003980962</v>
       </c>
       <c r="H7">
-        <v>0.004911760078273431</v>
+        <v>0.003368317421727163</v>
       </c>
       <c r="I7">
-        <v>0.0138540183896998</v>
+        <v>0.008697250959334824</v>
       </c>
       <c r="J7">
-        <v>1.008516985017991</v>
+        <v>1.165050868275131</v>
       </c>
       <c r="K7">
-        <v>1.623081046888061</v>
+        <v>0.7911839573996318</v>
       </c>
       <c r="L7">
-        <v>0.1186338932491431</v>
+        <v>0.2507014476608731</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.3481048564000488</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.1021221048431613</v>
       </c>
       <c r="O7">
-        <v>4.676214089897854</v>
+        <v>0</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>3.642238338733847</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.004777335838611</v>
+        <v>1.199581713427619</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1251455584624992</v>
+        <v>0.1086042890638552</v>
       </c>
       <c r="E8">
-        <v>0.1135202610714572</v>
+        <v>0.09579213360198935</v>
       </c>
       <c r="F8">
-        <v>2.012822300935042</v>
+        <v>2.241120859147642</v>
       </c>
       <c r="G8">
-        <v>2.194600309689832</v>
+        <v>2.411115651795171</v>
       </c>
       <c r="H8">
-        <v>0.01197006591644306</v>
+        <v>0.008896956741087564</v>
       </c>
       <c r="I8">
-        <v>0.01131896754617312</v>
+        <v>0.00722230550128522</v>
       </c>
       <c r="J8">
-        <v>1.17068812594195</v>
+        <v>1.310447327348243</v>
       </c>
       <c r="K8">
-        <v>1.897131022397858</v>
+        <v>0.9178145345490805</v>
       </c>
       <c r="L8">
-        <v>0.1318422671992785</v>
+        <v>0.3082534851868246</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.3823537165956594</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.1125398434653277</v>
       </c>
       <c r="O8">
-        <v>5.638041034571387</v>
+        <v>0</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>4.414196725403627</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.34822618996651</v>
+        <v>1.593978031688067</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1570559379701493</v>
+        <v>0.1348502284559245</v>
       </c>
       <c r="E9">
-        <v>0.1380309395851178</v>
+        <v>0.1153018201360627</v>
       </c>
       <c r="F9">
-        <v>2.626333093677914</v>
+        <v>2.89973550562928</v>
       </c>
       <c r="G9">
-        <v>2.947384580974557</v>
+        <v>3.223787849858297</v>
       </c>
       <c r="H9">
-        <v>0.03374799535684847</v>
+        <v>0.02658504568949693</v>
       </c>
       <c r="I9">
-        <v>0.007060243355338613</v>
+        <v>0.004646702889905541</v>
       </c>
       <c r="J9">
-        <v>1.511927103074754</v>
+        <v>1.660785093188878</v>
       </c>
       <c r="K9">
-        <v>2.430068840202736</v>
+        <v>1.166517998545871</v>
       </c>
       <c r="L9">
-        <v>0.1570563218250527</v>
+        <v>0.4291453515796491</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.4458413448333189</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.1331394035236997</v>
       </c>
       <c r="O9">
-        <v>7.512409242545317</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>5.937562744966669</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.605281223497855</v>
+        <v>1.89303298844419</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.183496832994436</v>
+        <v>0.1548294995374846</v>
       </c>
       <c r="E10">
-        <v>0.160308008362346</v>
+        <v>0.1320626277817922</v>
       </c>
       <c r="F10">
-        <v>3.057917200749159</v>
+        <v>3.327778948030584</v>
       </c>
       <c r="G10">
-        <v>3.48710703148663</v>
+        <v>3.834489225723502</v>
       </c>
       <c r="H10">
-        <v>0.05553945228956358</v>
+        <v>0.0441759201454559</v>
       </c>
       <c r="I10">
-        <v>0.004911697360965306</v>
+        <v>0.003514920590586001</v>
       </c>
       <c r="J10">
-        <v>1.756351203032779</v>
+        <v>1.816560953033871</v>
       </c>
       <c r="K10">
-        <v>2.873304676874255</v>
+        <v>1.379897772610718</v>
       </c>
       <c r="L10">
-        <v>0.1813325016025047</v>
+        <v>0.5334654206828162</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.502381112522599</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.1513522558420632</v>
       </c>
       <c r="O10">
-        <v>8.870993376378721</v>
+        <v>0</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>7.0078915317454</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.777034279553874</v>
+        <v>2.106959808753345</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2141196857939605</v>
+        <v>0.1766784850417977</v>
       </c>
       <c r="E11">
-        <v>0.2110619373758738</v>
+        <v>0.1680382705547885</v>
       </c>
       <c r="F11">
-        <v>2.850327482315038</v>
+        <v>3.065318162844619</v>
       </c>
       <c r="G11">
-        <v>3.339627498361637</v>
+        <v>3.760408297799813</v>
       </c>
       <c r="H11">
-        <v>0.07797176149932028</v>
+        <v>0.0647783378182254</v>
       </c>
       <c r="I11">
-        <v>0.004617746639897113</v>
+        <v>0.003709309241080483</v>
       </c>
       <c r="J11">
-        <v>1.673405593170571</v>
+        <v>1.560043975882792</v>
       </c>
       <c r="K11">
-        <v>3.311054463241234</v>
+        <v>1.592247135072299</v>
       </c>
       <c r="L11">
-        <v>0.2569907509055938</v>
+        <v>0.6240846646065563</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.5716473383806573</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.2008092352099737</v>
       </c>
       <c r="O11">
-        <v>9.091053038882194</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>7.038748438068325</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.875008657004571</v>
+        <v>2.229638910365111</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.236081496278814</v>
+        <v>0.1931627329695687</v>
       </c>
       <c r="E12">
-        <v>0.2584566075351447</v>
+        <v>0.2033592320659388</v>
       </c>
       <c r="F12">
-        <v>2.59477060793597</v>
+        <v>2.784248770584725</v>
       </c>
       <c r="G12">
-        <v>3.108310163743653</v>
+        <v>3.554567641419254</v>
       </c>
       <c r="H12">
-        <v>0.1158473419772434</v>
+        <v>0.1021853783598416</v>
       </c>
       <c r="I12">
-        <v>0.004322178818579658</v>
+        <v>0.003546918479280237</v>
       </c>
       <c r="J12">
-        <v>1.554997049089366</v>
+        <v>1.374877224386154</v>
       </c>
       <c r="K12">
-        <v>3.566224069851188</v>
+        <v>1.713545020527405</v>
       </c>
       <c r="L12">
-        <v>0.3364288912555935</v>
+        <v>0.673732783188953</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.6131934085784678</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.2577243875640747</v>
       </c>
       <c r="O12">
-        <v>8.94900159368234</v>
+        <v>0</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>6.826073559533285</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.916401612566091</v>
+        <v>2.282580873303232</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.2524176732849526</v>
+        <v>0.2077426894860821</v>
       </c>
       <c r="E13">
-        <v>0.3056247454214898</v>
+        <v>0.2407966270248423</v>
       </c>
       <c r="F13">
-        <v>2.283944863248834</v>
+        <v>2.479099450034653</v>
       </c>
       <c r="G13">
-        <v>2.795429621005042</v>
+        <v>3.222802036815239</v>
       </c>
       <c r="H13">
-        <v>0.1671427493964615</v>
+        <v>0.1541448007458968</v>
       </c>
       <c r="I13">
-        <v>0.004347971220004077</v>
+        <v>0.003547175496505517</v>
       </c>
       <c r="J13">
-        <v>1.400458318661151</v>
+        <v>1.253774936210021</v>
       </c>
       <c r="K13">
-        <v>3.720809580079617</v>
+        <v>1.78112946962392</v>
       </c>
       <c r="L13">
-        <v>0.4227329183472648</v>
+        <v>0.6972699651006735</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.6400733009844828</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.3232724504715918</v>
       </c>
       <c r="O13">
-        <v>8.553670710279619</v>
+        <v>0</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>6.445249684963954</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.918759883466066</v>
+        <v>2.287229634684877</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.2614483647415113</v>
+        <v>0.2174496895461715</v>
       </c>
       <c r="E14">
-        <v>0.3394779946722792</v>
+        <v>0.2690609244764488</v>
       </c>
       <c r="F14">
-        <v>2.044835607917776</v>
+        <v>2.254974264124442</v>
       </c>
       <c r="G14">
-        <v>2.542733678604264</v>
+        <v>2.938957535166992</v>
       </c>
       <c r="H14">
-        <v>0.2120138674869736</v>
+        <v>0.1999250453727228</v>
       </c>
       <c r="I14">
-        <v>0.00459443747259769</v>
+        <v>0.003722020659933989</v>
       </c>
       <c r="J14">
-        <v>1.277409529659053</v>
+        <v>1.192506442108453</v>
       </c>
       <c r="K14">
-        <v>3.789718326334395</v>
+        <v>1.806949748013409</v>
       </c>
       <c r="L14">
-        <v>0.488465512796509</v>
+        <v>0.7027943265019445</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.6534992433105913</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.3751362649941115</v>
       </c>
       <c r="O14">
-        <v>8.170727041481143</v>
+        <v>0</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>6.107969997688599</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.9055270293033</v>
+        <v>2.271946570533316</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.2622192712632057</v>
+        <v>0.2192536435466224</v>
       </c>
       <c r="E15">
-        <v>0.3464982415751123</v>
+        <v>0.2753854475316189</v>
       </c>
       <c r="F15">
-        <v>1.973695373153291</v>
+        <v>2.192333401648909</v>
       </c>
       <c r="G15">
-        <v>2.463148410110392</v>
+        <v>2.844486072712982</v>
       </c>
       <c r="H15">
-        <v>0.2225879909080817</v>
+        <v>0.2109431056791209</v>
       </c>
       <c r="I15">
-        <v>0.004847184824109618</v>
+        <v>0.003946633082147599</v>
       </c>
       <c r="J15">
-        <v>1.239428182114494</v>
+        <v>1.186020581828217</v>
       </c>
       <c r="K15">
-        <v>3.79201494539916</v>
+        <v>1.805311151902231</v>
       </c>
       <c r="L15">
-        <v>0.5033386740385168</v>
+        <v>0.6997926435292072</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.6550673000124192</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.3871925765298272</v>
       </c>
       <c r="O15">
-        <v>8.033112961289135</v>
+        <v>0</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>5.995299111978028</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.782045760369243</v>
+        <v>2.122246211151719</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.2465925479882145</v>
+        <v>0.2111317043925993</v>
       </c>
       <c r="E16">
-        <v>0.3257674665683368</v>
+        <v>0.2616832351368004</v>
       </c>
       <c r="F16">
-        <v>1.856924276680203</v>
+        <v>2.114856659976724</v>
       </c>
       <c r="G16">
-        <v>2.299362769787564</v>
+        <v>2.617167990025791</v>
       </c>
       <c r="H16">
-        <v>0.2010670602073219</v>
+        <v>0.1916094531251389</v>
       </c>
       <c r="I16">
-        <v>0.005780908994447387</v>
+        <v>0.004548487058250394</v>
       </c>
       <c r="J16">
-        <v>1.167727540844453</v>
+        <v>1.254303248797697</v>
       </c>
       <c r="K16">
-        <v>3.571027886511786</v>
+        <v>1.691642491083655</v>
       </c>
       <c r="L16">
-        <v>0.4730380553187672</v>
+        <v>0.6449199801598695</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.6238994447886768</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.3650323350629776</v>
       </c>
       <c r="O16">
-        <v>7.552328013099071</v>
+        <v>0</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>5.662734032688576</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.686453080150585</v>
+        <v>2.006490653370633</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.2298721739273475</v>
+        <v>0.1987399195070907</v>
       </c>
       <c r="E17">
-        <v>0.2914495050052466</v>
+        <v>0.2349979764617203</v>
       </c>
       <c r="F17">
-        <v>1.892209776230814</v>
+        <v>2.16771706808575</v>
       </c>
       <c r="G17">
-        <v>2.306334488966968</v>
+        <v>2.597414733280601</v>
       </c>
       <c r="H17">
-        <v>0.1590372215951845</v>
+        <v>0.1506659073076548</v>
       </c>
       <c r="I17">
-        <v>0.006422673530605216</v>
+        <v>0.004960562883652209</v>
       </c>
       <c r="J17">
-        <v>1.17738034104238</v>
+        <v>1.324644410491146</v>
       </c>
       <c r="K17">
-        <v>3.367108534417866</v>
+        <v>1.593622672250518</v>
       </c>
       <c r="L17">
-        <v>0.4136524622613251</v>
+        <v>0.6014282954347863</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.5935974118590792</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.3190189435420052</v>
       </c>
       <c r="O17">
-        <v>7.386670837218617</v>
+        <v>0</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>5.580882674864569</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.607287609455085</v>
+        <v>1.908392584093434</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.2108975851195964</v>
+        <v>0.1827947856541385</v>
       </c>
       <c r="E18">
-        <v>0.2454045538543923</v>
+        <v>0.1982932160211455</v>
       </c>
       <c r="F18">
-        <v>2.068151214304692</v>
+        <v>2.354465767415746</v>
       </c>
       <c r="G18">
-        <v>2.464876649313965</v>
+        <v>2.746436058469243</v>
       </c>
       <c r="H18">
-        <v>0.1053626860561891</v>
+        <v>0.09741094672127559</v>
       </c>
       <c r="I18">
-        <v>0.006541408090295242</v>
+        <v>0.004875228273141907</v>
       </c>
       <c r="J18">
-        <v>1.259912663098675</v>
+        <v>1.434232306214852</v>
       </c>
       <c r="K18">
-        <v>3.139753757028174</v>
+        <v>1.488565398083296</v>
       </c>
       <c r="L18">
-        <v>0.3313349709240896</v>
+        <v>0.5592491206402741</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.5569934825369884</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.2558175084110346</v>
       </c>
       <c r="O18">
-        <v>7.453823600943224</v>
+        <v>0</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>5.701594615228828</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.542607549469722</v>
+        <v>1.827944072661751</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1928415370171166</v>
+        <v>0.1667852310376432</v>
       </c>
       <c r="E19">
-        <v>0.2001481102595157</v>
+        <v>0.1625185371800377</v>
       </c>
       <c r="F19">
-        <v>2.348651775643049</v>
+        <v>2.643548553329197</v>
       </c>
       <c r="G19">
-        <v>2.736078644613656</v>
+        <v>3.019144875798247</v>
       </c>
       <c r="H19">
-        <v>0.06275290953404777</v>
+        <v>0.05459011154261617</v>
       </c>
       <c r="I19">
-        <v>0.006769834740889991</v>
+        <v>0.005069881524908837</v>
       </c>
       <c r="J19">
-        <v>1.395727610564279</v>
+        <v>1.579416103949967</v>
       </c>
       <c r="K19">
-        <v>2.954045435290809</v>
+        <v>1.405638360892979</v>
       </c>
       <c r="L19">
-        <v>0.2517746188012282</v>
+        <v>0.5281962435929657</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.5259868636896741</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.1969049883096901</v>
       </c>
       <c r="O19">
-        <v>7.740009947046588</v>
+        <v>0</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>6.005020483975017</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.529408030423951</v>
+        <v>1.805799025919015</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1768500992462592</v>
+        <v>0.1509100731113406</v>
       </c>
       <c r="E20">
-        <v>0.1551406831735065</v>
+        <v>0.1284285245100314</v>
       </c>
       <c r="F20">
-        <v>2.92948151517524</v>
+        <v>3.222283426265761</v>
       </c>
       <c r="G20">
-        <v>3.330668738035513</v>
+        <v>3.64446156571347</v>
       </c>
       <c r="H20">
-        <v>0.04942166100280598</v>
+        <v>0.03932946115188862</v>
       </c>
       <c r="I20">
-        <v>0.006245892971673328</v>
+        <v>0.004774577833666527</v>
       </c>
       <c r="J20">
-        <v>1.684682807622892</v>
+        <v>1.823670703186309</v>
       </c>
       <c r="K20">
-        <v>2.814897618761975</v>
+        <v>1.34928701774156</v>
       </c>
       <c r="L20">
-        <v>0.1759492258875852</v>
+        <v>0.5148426866034939</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.4976019041278192</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.1471043508897516</v>
       </c>
       <c r="O20">
-        <v>8.573470852688359</v>
+        <v>0</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>6.777503723760873</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.718470965040041</v>
+        <v>2.035080775293352</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1946062968337685</v>
+        <v>0.1582537613288366</v>
       </c>
       <c r="E21">
-        <v>0.1664335581666272</v>
+        <v>0.135092643921638</v>
       </c>
       <c r="F21">
-        <v>3.34876282426842</v>
+        <v>3.533713632776909</v>
       </c>
       <c r="G21">
-        <v>3.832701679412452</v>
+        <v>4.294026228478998</v>
       </c>
       <c r="H21">
-        <v>0.06997651867206756</v>
+        <v>0.05512987354269683</v>
       </c>
       <c r="I21">
-        <v>0.00471761207798771</v>
+        <v>0.003900752609692582</v>
       </c>
       <c r="J21">
-        <v>1.915673275434813</v>
+        <v>1.705453294365753</v>
       </c>
       <c r="K21">
-        <v>3.116877501606268</v>
+        <v>1.510230758676443</v>
       </c>
       <c r="L21">
-        <v>0.1858350332795169</v>
+        <v>0.595647444945925</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.5389369637549635</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.1550580487260085</v>
       </c>
       <c r="O21">
-        <v>9.687957884377198</v>
+        <v>0</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>7.604977237766605</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.849112584316003</v>
+        <v>2.193167975688198</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.2074257472302463</v>
+        <v>0.1638271606914259</v>
       </c>
       <c r="E22">
-        <v>0.1757146278875013</v>
+        <v>0.1408146854398957</v>
       </c>
       <c r="F22">
-        <v>3.612028619897984</v>
+        <v>3.713425557475034</v>
       </c>
       <c r="G22">
-        <v>4.151855155824734</v>
+        <v>4.71889640679575</v>
       </c>
       <c r="H22">
-        <v>0.08474442377565339</v>
+        <v>0.06635100757324697</v>
       </c>
       <c r="I22">
-        <v>0.0035926806444877</v>
+        <v>0.00306293880983155</v>
       </c>
       <c r="J22">
-        <v>2.062284149133916</v>
+        <v>1.607268915547394</v>
       </c>
       <c r="K22">
-        <v>3.305801660826504</v>
+        <v>1.612499357325262</v>
       </c>
       <c r="L22">
-        <v>0.1949757098900307</v>
+        <v>0.6482055722267148</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.5644750732626278</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.1619461325145046</v>
       </c>
       <c r="O22">
-        <v>10.37120508776715</v>
+        <v>0</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>8.100181962705534</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.782605095146437</v>
+        <v>2.109762583360805</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.2004284493488342</v>
+        <v>0.161491868765836</v>
       </c>
       <c r="E23">
-        <v>0.1705402431700911</v>
+        <v>0.1379389982635466</v>
       </c>
       <c r="F23">
-        <v>3.474702251399236</v>
+        <v>3.634427486007809</v>
       </c>
       <c r="G23">
-        <v>3.984278479190095</v>
+        <v>4.480568093441491</v>
       </c>
       <c r="H23">
-        <v>0.07660467612960975</v>
+        <v>0.06031350956584536</v>
       </c>
       <c r="I23">
-        <v>0.00385567625456229</v>
+        <v>0.00311099516081903</v>
       </c>
       <c r="J23">
-        <v>1.985478229382096</v>
+        <v>1.696650035167011</v>
       </c>
       <c r="K23">
-        <v>3.182072939100649</v>
+        <v>1.544702023623472</v>
       </c>
       <c r="L23">
-        <v>0.1898209811417928</v>
+        <v>0.6152221024387217</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.5458541540809421</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.158351823730591</v>
       </c>
       <c r="O23">
-        <v>9.98202785626799</v>
+        <v>0</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>7.830014415513119</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.526146693005529</v>
+        <v>1.799599580239203</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1748706917687883</v>
+        <v>0.1492622614006578</v>
       </c>
       <c r="E24">
-        <v>0.1516180692418096</v>
+        <v>0.1260076360328348</v>
       </c>
       <c r="F24">
-        <v>2.966367498520924</v>
+        <v>3.258829912347949</v>
       </c>
       <c r="G24">
-        <v>3.364755598713174</v>
+        <v>3.676201391244803</v>
       </c>
       <c r="H24">
-        <v>0.04961672219529589</v>
+        <v>0.03955294208946425</v>
       </c>
       <c r="I24">
-        <v>0.005749745297596753</v>
+        <v>0.00415874000896288</v>
       </c>
       <c r="J24">
-        <v>1.701895246154123</v>
+        <v>1.843029715517758</v>
       </c>
       <c r="K24">
-        <v>2.758480719164439</v>
+        <v>1.322526065124265</v>
       </c>
       <c r="L24">
-        <v>0.1709105203598398</v>
+        <v>0.5048936407938385</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.4875248900884657</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.1443280703120706</v>
       </c>
       <c r="O24">
-        <v>8.557834530178553</v>
+        <v>0</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>6.779661144385585</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.250467343600832</v>
+        <v>1.482716813320195</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1484632790157505</v>
+        <v>0.1282029019437516</v>
       </c>
       <c r="E25">
-        <v>0.1316853824084667</v>
+        <v>0.1102944775187265</v>
       </c>
       <c r="F25">
-        <v>2.449411433376696</v>
+        <v>2.720372054135652</v>
       </c>
       <c r="G25">
-        <v>2.732571973345529</v>
+        <v>2.987475188120442</v>
       </c>
       <c r="H25">
-        <v>0.02690922963073472</v>
+        <v>0.02101857836270216</v>
       </c>
       <c r="I25">
-        <v>0.008539532981184372</v>
+        <v>0.005801372037229413</v>
       </c>
       <c r="J25">
-        <v>1.413904127557544</v>
+        <v>1.583607507460101</v>
       </c>
       <c r="K25">
-        <v>2.315793590179496</v>
+        <v>1.11216890905304</v>
       </c>
       <c r="L25">
-        <v>0.1506900198684704</v>
+        <v>0.4000880833586038</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.4342490617601484</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.1277445320269628</v>
       </c>
       <c r="O25">
-        <v>7.038292120197326</v>
+        <v>0</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>5.55145275139779</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
